--- a/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,25 +409,31 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.28976501815657</v>
+        <v>26.11614660427156</v>
       </c>
       <c r="C2">
-        <v>11.78006629459843</v>
+        <v>19.41152626607812</v>
       </c>
       <c r="D2">
-        <v>9.847775494328184</v>
+        <v>4.081514162198943</v>
       </c>
       <c r="E2">
-        <v>14.05060038107656</v>
+        <v>9.263226182751657</v>
       </c>
       <c r="F2">
-        <v>63.28809040287475</v>
+        <v>39.07340964056876</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -436,33 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>17.79258121031862</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.14651751928999</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>20.32993222266355</v>
+      </c>
+      <c r="N2">
+        <v>12.79841478287551</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.67545676762299</v>
+        <v>24.20586217997972</v>
       </c>
       <c r="C3">
-        <v>10.91862286437682</v>
+        <v>17.99903521126033</v>
       </c>
       <c r="D3">
-        <v>9.368937033601931</v>
+        <v>4.106725240448733</v>
       </c>
       <c r="E3">
-        <v>12.99234955700943</v>
+        <v>8.75773170254684</v>
       </c>
       <c r="F3">
-        <v>59.33615139712119</v>
+        <v>36.84099457653429</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -471,33 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.46885367128123</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.02374082624547</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>18.86425681150139</v>
+      </c>
+      <c r="N3">
+        <v>12.96750301723624</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.64387118835344</v>
+        <v>22.97814064316649</v>
       </c>
       <c r="C4">
-        <v>10.36987662401814</v>
+        <v>17.09160025717695</v>
       </c>
       <c r="D4">
-        <v>9.070822704231841</v>
+        <v>4.126693220434785</v>
       </c>
       <c r="E4">
-        <v>12.32207142380493</v>
+        <v>8.44555545351721</v>
       </c>
       <c r="F4">
-        <v>56.84398837799238</v>
+        <v>35.45544628275768</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -506,33 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>15.62253958063107</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.30639173479424</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>17.9232272760564</v>
+      </c>
+      <c r="N4">
+        <v>13.07720895714993</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.21295395285422</v>
+        <v>22.46373521726531</v>
       </c>
       <c r="C5">
-        <v>10.14102134272081</v>
+        <v>16.71144701688561</v>
       </c>
       <c r="D5">
-        <v>8.948280246775255</v>
+        <v>4.13585247186091</v>
       </c>
       <c r="E5">
-        <v>12.07379132922254</v>
+        <v>8.317942687329099</v>
       </c>
       <c r="F5">
-        <v>55.81178170165298</v>
+        <v>34.88737666787031</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -541,33 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>15.26887650902553</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.00673684758083</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>17.52914033883411</v>
+      </c>
+      <c r="N5">
+        <v>13.12330974828032</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.14075386430028</v>
+        <v>22.37745832314996</v>
       </c>
       <c r="C6">
-        <v>10.10269696785187</v>
+        <v>16.64768936817606</v>
       </c>
       <c r="D6">
-        <v>8.927868013095773</v>
+        <v>4.137432200198713</v>
       </c>
       <c r="E6">
-        <v>12.03231729842958</v>
+        <v>8.296730903736242</v>
       </c>
       <c r="F6">
-        <v>55.63938164180537</v>
+        <v>34.79285230925335</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -576,33 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>15.20961100856202</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>12.95652858691804</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>17.46305411813352</v>
+      </c>
+      <c r="N6">
+        <v>13.13104674155636</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.63810282094668</v>
+        <v>22.9712606769055</v>
       </c>
       <c r="C7">
-        <v>10.36681171847573</v>
+        <v>17.08651568763222</v>
       </c>
       <c r="D7">
-        <v>9.069174353412793</v>
+        <v>4.126812738970636</v>
       </c>
       <c r="E7">
-        <v>12.31873961101125</v>
+        <v>8.443835938137937</v>
       </c>
       <c r="F7">
-        <v>56.83013498270504</v>
+        <v>35.4477985640883</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -611,33 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>15.61780595544917</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.30238053183559</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>17.91795578660327</v>
+      </c>
+      <c r="N7">
+        <v>13.07782514445385</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.74128958836846</v>
+        <v>25.46865140586049</v>
       </c>
       <c r="C8">
-        <v>11.48699069193102</v>
+        <v>18.93266593170466</v>
       </c>
       <c r="D8">
-        <v>9.683499188751243</v>
+        <v>4.089207565116982</v>
       </c>
       <c r="E8">
-        <v>13.69105817200083</v>
+        <v>9.089326413850005</v>
       </c>
       <c r="F8">
-        <v>61.93893454437938</v>
+        <v>38.30687114439198</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -646,33 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>17.34289881456267</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>14.76499658188729</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>19.8329236962257</v>
+      </c>
+      <c r="N8">
+        <v>12.8554395046753</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.56540594498623</v>
+        <v>29.9475455848415</v>
       </c>
       <c r="C9">
-        <v>13.53978672622843</v>
+        <v>22.24777824966582</v>
       </c>
       <c r="D9">
-        <v>10.85852436591684</v>
+        <v>4.056548172292342</v>
       </c>
       <c r="E9">
-        <v>16.19825306685924</v>
+        <v>10.34055733258794</v>
       </c>
       <c r="F9">
-        <v>71.4563906642975</v>
+        <v>43.7923747106851</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -681,33 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>20.47775308880026</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.4268726472896</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>23.27598419287407</v>
+      </c>
+      <c r="N9">
+        <v>12.47066875172868</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.22606411591175</v>
+        <v>33.00925451093281</v>
       </c>
       <c r="C10">
-        <v>14.98262246967139</v>
+        <v>24.51873375443951</v>
       </c>
       <c r="D10">
-        <v>11.71077378984401</v>
+        <v>4.066372835935002</v>
       </c>
       <c r="E10">
-        <v>17.94387404818967</v>
+        <v>11.37361851808525</v>
       </c>
       <c r="F10">
-        <v>78.19435694114131</v>
+        <v>47.80014227587262</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -716,33 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>22.65951449677064</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>19.28251961613807</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>25.63746146880497</v>
+      </c>
+      <c r="N10">
+        <v>12.22723134149839</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.413876051157</v>
+        <v>34.35940642686018</v>
       </c>
       <c r="C11">
-        <v>15.63120004929825</v>
+        <v>25.52179418688231</v>
       </c>
       <c r="D11">
-        <v>12.0986599869429</v>
+        <v>4.080518749809596</v>
       </c>
       <c r="E11">
-        <v>18.72371281587561</v>
+        <v>11.86666045459623</v>
       </c>
       <c r="F11">
-        <v>81.22294353469724</v>
+        <v>49.71654230200473</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -751,33 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>23.63407921865117</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>20.11226416739639</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>26.68116923220597</v>
+      </c>
+      <c r="N11">
+        <v>12.12733489812993</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.86146293126373</v>
+        <v>34.86524402991419</v>
       </c>
       <c r="C12">
-        <v>15.87636099507775</v>
+        <v>25.89788164240551</v>
       </c>
       <c r="D12">
-        <v>12.24587507049946</v>
+        <v>4.087497199415989</v>
       </c>
       <c r="E12">
-        <v>19.0176708087355</v>
+        <v>12.05215263981668</v>
       </c>
       <c r="F12">
-        <v>82.36670726088006</v>
+        <v>50.43992033812885</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -786,33 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>24.00142802060397</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>20.42516740054385</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>27.07259482112237</v>
+      </c>
+      <c r="N12">
+        <v>12.09131460469051</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.7651465628598</v>
+        <v>34.75653223578485</v>
       </c>
       <c r="C13">
-        <v>15.8235683732021</v>
+        <v>25.81704118602836</v>
       </c>
       <c r="D13">
-        <v>12.21414915165599</v>
+        <v>4.085918109937454</v>
       </c>
       <c r="E13">
-        <v>18.95440889696318</v>
+        <v>12.01225154317312</v>
       </c>
       <c r="F13">
-        <v>82.1204740122346</v>
+        <v>50.28421304044678</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -821,33 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>23.92237224865423</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>20.35782194908372</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>26.98845303520727</v>
+      </c>
+      <c r="N13">
+        <v>12.0989872637122</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.45073689946144</v>
+        <v>34.40112651866897</v>
       </c>
       <c r="C14">
-        <v>15.65137400360578</v>
+        <v>25.55280668971093</v>
       </c>
       <c r="D14">
-        <v>12.11076277090752</v>
+        <v>4.081058930520092</v>
       </c>
       <c r="E14">
-        <v>18.74791940591251</v>
+        <v>11.88194318167549</v>
       </c>
       <c r="F14">
-        <v>81.31708917528456</v>
+        <v>49.77609512817518</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -856,33 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>23.6643295084855</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>20.13802800629756</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>26.71344455621655</v>
+      </c>
+      <c r="N14">
+        <v>12.12433363236962</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.25789831879375</v>
+        <v>34.18274504074279</v>
       </c>
       <c r="C15">
-        <v>15.54586520807108</v>
+        <v>25.39048554580278</v>
       </c>
       <c r="D15">
-        <v>12.04748924477442</v>
+        <v>4.078301142323493</v>
       </c>
       <c r="E15">
-        <v>18.62128623128648</v>
+        <v>11.80197858137271</v>
       </c>
       <c r="F15">
-        <v>80.82466394051437</v>
+        <v>49.46458891926849</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -891,33 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>23.50607922464199</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>20.00325387471633</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>26.54451771313326</v>
+      </c>
+      <c r="N15">
+        <v>12.14010278905962</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>27.14806727295503</v>
+        <v>32.92021778968242</v>
       </c>
       <c r="C16">
-        <v>14.94013444214909</v>
+        <v>24.45262373557331</v>
       </c>
       <c r="D16">
-        <v>11.68545237384612</v>
+        <v>4.065662017329577</v>
       </c>
       <c r="E16">
-        <v>17.89267934325946</v>
+        <v>11.34120803965279</v>
       </c>
       <c r="F16">
-        <v>77.99586750792049</v>
+        <v>47.67451817695332</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -926,33 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>22.59553464862383</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>19.2280659877068</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>25.56868617961505</v>
+      </c>
+      <c r="N16">
+        <v>12.23399815156128</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.46211473263998</v>
+        <v>32.13523761980622</v>
       </c>
       <c r="C17">
-        <v>14.56698336578164</v>
+        <v>23.86996333249426</v>
       </c>
       <c r="D17">
-        <v>11.46359346735932</v>
+        <v>4.060540378448809</v>
       </c>
       <c r="E17">
-        <v>17.44250422600499</v>
+        <v>11.05600814338765</v>
       </c>
       <c r="F17">
-        <v>76.25248831470734</v>
+        <v>46.61024323409876</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -961,33 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>22.03292258321221</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.74932141388816</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>24.96261119333782</v>
+      </c>
+      <c r="N17">
+        <v>12.29453895220128</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.06537891154425</v>
+        <v>31.67967702374555</v>
       </c>
       <c r="C18">
-        <v>14.35157677116639</v>
+        <v>23.5319690715644</v>
       </c>
       <c r="D18">
-        <v>11.33598162009144</v>
+        <v>4.058489755657712</v>
       </c>
       <c r="E18">
-        <v>17.18218429522421</v>
+        <v>10.89093489239376</v>
       </c>
       <c r="F18">
-        <v>75.24614207126965</v>
+        <v>46.01678684083164</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -996,33 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>21.70757311827826</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.4725505487083</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>24.61109792056469</v>
+      </c>
+      <c r="N18">
+        <v>12.33036352031085</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.93064631394288</v>
+        <v>31.5247152559132</v>
       </c>
       <c r="C19">
-        <v>14.27849155795381</v>
+        <v>23.41702250835759</v>
       </c>
       <c r="D19">
-        <v>11.29276580537363</v>
+        <v>4.057942716271785</v>
       </c>
       <c r="E19">
-        <v>17.09378657692255</v>
+        <v>10.83485717703617</v>
       </c>
       <c r="F19">
-        <v>74.90473566539599</v>
+        <v>45.81569739172942</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1031,33 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>21.59709096635258</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.37857781096621</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>24.49156457548562</v>
+      </c>
+      <c r="N19">
+        <v>12.34265861430194</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.53535587962848</v>
+        <v>32.21921570408552</v>
       </c>
       <c r="C20">
-        <v>14.60678222426255</v>
+        <v>23.93228108343782</v>
       </c>
       <c r="D20">
-        <v>11.48720926657131</v>
+        <v>4.06099137192768</v>
       </c>
       <c r="E20">
-        <v>17.49056551896892</v>
+        <v>11.08647293419485</v>
       </c>
       <c r="F20">
-        <v>76.43843287877064</v>
+        <v>46.72000965661623</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1066,33 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>22.09298891900475</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.80042544858146</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>25.02742665327866</v>
+      </c>
+      <c r="N20">
+        <v>12.28798882189963</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.54313731211696</v>
+        <v>34.50565917663032</v>
       </c>
       <c r="C21">
-        <v>15.70195747732041</v>
+        <v>25.63051553876737</v>
       </c>
       <c r="D21">
-        <v>12.14111801242402</v>
+        <v>4.082440173938792</v>
       </c>
       <c r="E21">
-        <v>18.80860065736022</v>
+        <v>11.92024785335613</v>
       </c>
       <c r="F21">
-        <v>81.55312656620502</v>
+        <v>49.92539570865328</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1101,33 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>23.74016100055827</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>20.20261520212743</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>26.79431925781695</v>
+      </c>
+      <c r="N21">
+        <v>12.11683746719332</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.84310585876945</v>
+        <v>35.96871408799668</v>
       </c>
       <c r="C22">
-        <v>16.41558090492081</v>
+        <v>26.71889155445371</v>
       </c>
       <c r="D22">
-        <v>12.57062453292445</v>
+        <v>4.106043084291663</v>
       </c>
       <c r="E22">
-        <v>19.66259169035307</v>
+        <v>12.45830369466087</v>
       </c>
       <c r="F22">
-        <v>84.87930022640774</v>
+        <v>52.02780833160885</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1136,33 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>24.80734968127733</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>21.11192402970541</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>27.92726502008966</v>
+      </c>
+      <c r="N22">
+        <v>12.01567611517209</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.1500034191174</v>
+        <v>35.19045267729381</v>
       </c>
       <c r="C23">
-        <v>16.0346357141625</v>
+        <v>26.13976001480953</v>
       </c>
       <c r="D23">
-        <v>12.34106830526078</v>
+        <v>4.092483551486288</v>
       </c>
       <c r="E23">
-        <v>19.2072049882157</v>
+        <v>12.17163493165854</v>
       </c>
       <c r="F23">
-        <v>83.10469457415125</v>
+        <v>50.90650150539312</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1171,33 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>24.23827989122478</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.62695727116569</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>27.32436504987682</v>
+      </c>
+      <c r="N23">
+        <v>12.06859261499674</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.50225102161082</v>
+        <v>32.18126254753002</v>
       </c>
       <c r="C24">
-        <v>14.58879194120758</v>
+        <v>23.9041166605146</v>
       </c>
       <c r="D24">
-        <v>11.47653277917771</v>
+        <v>4.060784710556292</v>
       </c>
       <c r="E24">
-        <v>17.4688417569805</v>
+        <v>11.0727032776209</v>
       </c>
       <c r="F24">
-        <v>76.35438012447851</v>
+        <v>46.67038759122458</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1206,33 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>22.06583889893689</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.77732614887099</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>24.99813319734594</v>
+      </c>
+      <c r="N24">
+        <v>12.29094698053248</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.55986536179809</v>
+        <v>28.77819933238545</v>
       </c>
       <c r="C25">
-        <v>12.99778151846199</v>
+        <v>21.38158482988345</v>
       </c>
       <c r="D25">
-        <v>10.54326377175196</v>
+        <v>4.060151872079303</v>
       </c>
       <c r="E25">
-        <v>15.53886020596784</v>
+        <v>10.00349153080441</v>
       </c>
       <c r="F25">
-        <v>68.93127611475727</v>
+        <v>42.32111136403929</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1241,12 +1385,18 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>19.65346558293286</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>16.72645480886555</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>22.37585476780825</v>
+      </c>
+      <c r="N25">
+        <v>12.56853751039225</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
@@ -421,40 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>26.11614660427156</v>
+        <v>21.1637116135576</v>
       </c>
       <c r="C2">
-        <v>19.41152626607812</v>
+        <v>12.88864764536907</v>
       </c>
       <c r="D2">
-        <v>4.081514162198943</v>
+        <v>4.905920462794344</v>
       </c>
       <c r="E2">
-        <v>9.263226182751657</v>
+        <v>7.398419421999093</v>
       </c>
       <c r="F2">
-        <v>39.07340964056876</v>
+        <v>22.04586551603737</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>15.05257367733752</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.989628945707952</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.989156007910487</v>
       </c>
       <c r="M2">
-        <v>20.32993222266355</v>
+        <v>12.98734245781322</v>
       </c>
       <c r="N2">
-        <v>12.79841478287551</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>16.45458305804322</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -462,40 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>24.20586217997972</v>
+        <v>19.74387155810684</v>
       </c>
       <c r="C3">
-        <v>17.99903521126033</v>
+        <v>12.2281045047286</v>
       </c>
       <c r="D3">
-        <v>4.106725240448733</v>
+        <v>4.84879842142747</v>
       </c>
       <c r="E3">
-        <v>8.75773170254684</v>
+        <v>7.481268995532265</v>
       </c>
       <c r="F3">
-        <v>36.84099457653429</v>
+        <v>22.01036367549466</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>15.37917215267503</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>6.040282113707631</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.869054999403082</v>
       </c>
       <c r="M3">
-        <v>18.86425681150139</v>
+        <v>12.36719761902864</v>
       </c>
       <c r="N3">
-        <v>12.96750301723624</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>16.52191836370586</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -503,40 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.97814064316649</v>
+        <v>18.81978002789725</v>
       </c>
       <c r="C4">
-        <v>17.09160025717695</v>
+        <v>11.80393727932793</v>
       </c>
       <c r="D4">
-        <v>4.126693220434785</v>
+        <v>4.814728070166908</v>
       </c>
       <c r="E4">
-        <v>8.44555545351721</v>
+        <v>7.534045671653941</v>
       </c>
       <c r="F4">
-        <v>35.45544628275768</v>
+        <v>22.01174183993085</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>15.59190788492775</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>6.072375096537574</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.796400449266994</v>
       </c>
       <c r="M4">
-        <v>17.9232272760564</v>
+        <v>11.97292577737005</v>
       </c>
       <c r="N4">
-        <v>13.07720895714993</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>16.58053775954523</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -544,40 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>22.46373521726531</v>
+        <v>18.42997665841159</v>
       </c>
       <c r="C5">
-        <v>16.71144701688561</v>
+        <v>11.62652145500693</v>
       </c>
       <c r="D5">
-        <v>4.13585247186091</v>
+        <v>4.801104216499161</v>
       </c>
       <c r="E5">
-        <v>8.317942687329099</v>
+        <v>7.556036160881074</v>
       </c>
       <c r="F5">
-        <v>34.88737666787031</v>
+        <v>22.01791225950997</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>15.68155788303782</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>6.085706779628777</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.767093245489668</v>
       </c>
       <c r="M5">
-        <v>17.52914033883411</v>
+        <v>11.80904088409649</v>
       </c>
       <c r="N5">
-        <v>13.12330974828032</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>16.60857535659876</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -585,40 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>22.37745832314996</v>
+        <v>18.36444891872843</v>
       </c>
       <c r="C6">
-        <v>16.64768936817606</v>
+        <v>11.59678974035311</v>
       </c>
       <c r="D6">
-        <v>4.137432200198713</v>
+        <v>4.798857919851809</v>
       </c>
       <c r="E6">
-        <v>8.296730903736242</v>
+        <v>7.559716990230454</v>
       </c>
       <c r="F6">
-        <v>34.79285230925335</v>
+        <v>22.01926908724334</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>15.6966199053276</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>6.087935927058861</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.762245706502627</v>
       </c>
       <c r="M6">
-        <v>17.46305411813352</v>
+        <v>11.78163951114064</v>
       </c>
       <c r="N6">
-        <v>13.13104674155636</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>16.61347598232285</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -626,40 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.9712606769055</v>
+        <v>18.81457666600639</v>
       </c>
       <c r="C7">
-        <v>17.08651568763222</v>
+        <v>11.80156290383969</v>
       </c>
       <c r="D7">
-        <v>4.126812738970636</v>
+        <v>4.814543270780681</v>
       </c>
       <c r="E7">
-        <v>8.443835938137937</v>
+        <v>7.534340279728828</v>
       </c>
       <c r="F7">
-        <v>35.4477985640883</v>
+        <v>22.01180264049271</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>15.59310509352614</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>6.072553860332964</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.796003951899357</v>
       </c>
       <c r="M7">
-        <v>17.91795578660327</v>
+        <v>11.97072833100277</v>
       </c>
       <c r="N7">
-        <v>13.07782514445385</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>16.58089933708089</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -667,40 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>25.46865140586049</v>
+        <v>20.68496014727598</v>
       </c>
       <c r="C8">
-        <v>18.93266593170466</v>
+        <v>12.66480998350995</v>
       </c>
       <c r="D8">
-        <v>4.089207565116982</v>
+        <v>4.886021486426837</v>
       </c>
       <c r="E8">
-        <v>9.089326413850005</v>
+        <v>7.426592718161869</v>
       </c>
       <c r="F8">
-        <v>38.30687114439198</v>
+        <v>22.028684515373</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>15.16258176864753</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>6.006890872544135</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.94753528131105</v>
       </c>
       <c r="M8">
-        <v>19.8329236962257</v>
+        <v>12.77641670137953</v>
       </c>
       <c r="N8">
-        <v>12.8554395046753</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>16.47409721900271</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -708,40 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>29.9475455848415</v>
+        <v>23.94126501229418</v>
       </c>
       <c r="C9">
-        <v>22.24777824966582</v>
+        <v>14.2064209378204</v>
       </c>
       <c r="D9">
-        <v>4.056548172292342</v>
+        <v>5.033791162778637</v>
       </c>
       <c r="E9">
-        <v>10.34055733258794</v>
+        <v>7.230237981455158</v>
       </c>
       <c r="F9">
-        <v>43.7923747106851</v>
+        <v>22.25507825397608</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>14.42083786610817</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.88579839852249</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.252168864476638</v>
       </c>
       <c r="M9">
-        <v>23.27598419287407</v>
+        <v>14.24284760301452</v>
       </c>
       <c r="N9">
-        <v>12.47066875172868</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>16.41050328128866</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -749,40 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>33.00925451093281</v>
+        <v>26.08773634395323</v>
       </c>
       <c r="C10">
-        <v>24.51873375443951</v>
+        <v>15.24329072527385</v>
       </c>
       <c r="D10">
-        <v>4.066372835935002</v>
+        <v>5.146515779281224</v>
       </c>
       <c r="E10">
-        <v>11.37361851808525</v>
+        <v>7.094810885376593</v>
       </c>
       <c r="F10">
-        <v>47.80014227587262</v>
+        <v>22.55139042682803</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>13.94751954433594</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.801222299245894</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.479053683573903</v>
       </c>
       <c r="M10">
-        <v>25.63746146880497</v>
+        <v>15.24426570837459</v>
       </c>
       <c r="N10">
-        <v>12.22723134149839</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>16.46472147518912</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -790,40 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>34.35940642686018</v>
+        <v>27.01191220751926</v>
       </c>
       <c r="C11">
-        <v>25.52179418688231</v>
+        <v>15.69377434914165</v>
       </c>
       <c r="D11">
-        <v>4.080518749809596</v>
+        <v>5.19860120130063</v>
       </c>
       <c r="E11">
-        <v>11.86666045459623</v>
+        <v>7.035060410931634</v>
       </c>
       <c r="F11">
-        <v>49.71654230200473</v>
+        <v>22.71678620808818</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>13.75018518726415</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.763633694962377</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.582641743436922</v>
       </c>
       <c r="M11">
-        <v>26.68116923220597</v>
+        <v>15.68235872367228</v>
       </c>
       <c r="N11">
-        <v>12.12733489812993</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>16.51386159918334</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -831,40 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>34.86524402991419</v>
+        <v>27.35444845643299</v>
       </c>
       <c r="C12">
-        <v>25.89788164240551</v>
+        <v>15.86129440048965</v>
       </c>
       <c r="D12">
-        <v>4.087497199415989</v>
+        <v>5.218432518263329</v>
       </c>
       <c r="E12">
-        <v>12.05215263981668</v>
+        <v>7.012696611255379</v>
       </c>
       <c r="F12">
-        <v>50.43992033812885</v>
+        <v>22.78399502166694</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>13.6782843571197</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.749521556521507</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.621899290994477</v>
       </c>
       <c r="M12">
-        <v>27.07259482112237</v>
+        <v>15.84568508721508</v>
       </c>
       <c r="N12">
-        <v>12.09131460469051</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>16.5361952693875</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -872,40 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>34.75653223578485</v>
+        <v>27.28100615292656</v>
       </c>
       <c r="C13">
-        <v>25.81704118602836</v>
+        <v>15.8253526349961</v>
       </c>
       <c r="D13">
-        <v>4.085918109937454</v>
+        <v>5.214156825936887</v>
       </c>
       <c r="E13">
-        <v>12.01225154317312</v>
+        <v>7.017501456649455</v>
       </c>
       <c r="F13">
-        <v>50.28421304044678</v>
+        <v>22.76931415943461</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>13.69363967299515</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.752555529011564</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.613443446974435</v>
       </c>
       <c r="M13">
-        <v>26.98845303520727</v>
+        <v>15.81062491211813</v>
       </c>
       <c r="N13">
-        <v>12.0989872637122</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>16.531216398378</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -913,40 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>34.40112651866897</v>
+        <v>27.04024125658336</v>
       </c>
       <c r="C14">
-        <v>25.55280668971093</v>
+        <v>15.70761789692432</v>
       </c>
       <c r="D14">
-        <v>4.081058930520092</v>
+        <v>5.200230622913383</v>
       </c>
       <c r="E14">
-        <v>11.88194318167549</v>
+        <v>7.033215294392317</v>
       </c>
       <c r="F14">
-        <v>49.77609512817518</v>
+        <v>22.72222282075916</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>13.744211752274</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.762470271178157</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.585870990669622</v>
       </c>
       <c r="M14">
-        <v>26.71344455621655</v>
+        <v>15.69584747236621</v>
       </c>
       <c r="N14">
-        <v>12.12433363236962</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>16.51562317885152</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -954,40 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>34.18274504074279</v>
+        <v>26.89180092809689</v>
       </c>
       <c r="C15">
-        <v>25.39048554580278</v>
+        <v>15.63510196271314</v>
       </c>
       <c r="D15">
-        <v>4.078301142323493</v>
+        <v>5.191714209561987</v>
       </c>
       <c r="E15">
-        <v>11.80197858137271</v>
+        <v>7.042874513544055</v>
       </c>
       <c r="F15">
-        <v>49.46458891926849</v>
+        <v>22.69397910433323</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>13.77556421239456</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.768559038080904</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.568985444179112</v>
       </c>
       <c r="M15">
-        <v>26.54451771313326</v>
+        <v>15.62520679667043</v>
       </c>
       <c r="N15">
-        <v>12.14010278905962</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>16.50656306705344</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -995,40 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>32.92021778968242</v>
+        <v>26.02629491746254</v>
       </c>
       <c r="C16">
-        <v>24.45262373557331</v>
+        <v>15.2134220595329</v>
       </c>
       <c r="D16">
-        <v>4.065662017329577</v>
+        <v>5.143127385099133</v>
       </c>
       <c r="E16">
-        <v>11.34120803965279</v>
+        <v>7.098752684361632</v>
       </c>
       <c r="F16">
-        <v>47.67451817695332</v>
+        <v>22.54121258580684</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>13.96079742383369</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.803696158905953</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.47228952093045</v>
       </c>
       <c r="M16">
-        <v>25.56868617961505</v>
+        <v>15.21527854730929</v>
       </c>
       <c r="N16">
-        <v>12.23399815156128</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>16.4620202563903</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1036,40 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>32.13523761980622</v>
+        <v>25.48200955830971</v>
       </c>
       <c r="C17">
-        <v>23.86996333249426</v>
+        <v>14.94928848266275</v>
       </c>
       <c r="D17">
-        <v>4.060540378448809</v>
+        <v>5.1135214701459</v>
       </c>
       <c r="E17">
-        <v>11.05600814338765</v>
+        <v>7.13350431820756</v>
       </c>
       <c r="F17">
-        <v>46.61024323409876</v>
+        <v>22.45546270811063</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>14.07919827941967</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.825474625099714</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.41304918515262</v>
       </c>
       <c r="M17">
-        <v>24.96261119333782</v>
+        <v>14.95928198560771</v>
       </c>
       <c r="N17">
-        <v>12.29453895220128</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>16.44111125568668</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1077,40 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31.67967702374555</v>
+        <v>25.16402629852982</v>
       </c>
       <c r="C18">
-        <v>23.5319690715644</v>
+        <v>14.79537144411135</v>
       </c>
       <c r="D18">
-        <v>4.058489755657712</v>
+        <v>5.09656930739597</v>
       </c>
       <c r="E18">
-        <v>10.89093489239376</v>
+        <v>7.153667503877752</v>
       </c>
       <c r="F18">
-        <v>46.01678684083164</v>
+        <v>22.40901227834836</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>14.1489755846499</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.83808471324176</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.379012481954804</v>
       </c>
       <c r="M18">
-        <v>24.61109792056469</v>
+        <v>14.81039884653147</v>
       </c>
       <c r="N18">
-        <v>12.33036352031085</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>16.43137666144382</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1118,40 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31.5247152559132</v>
+        <v>25.05551420951602</v>
       </c>
       <c r="C19">
-        <v>23.41702250835759</v>
+        <v>14.74291606051917</v>
       </c>
       <c r="D19">
-        <v>4.057942716271785</v>
+        <v>5.090842973111115</v>
       </c>
       <c r="E19">
-        <v>10.83485717703617</v>
+        <v>7.160524598498144</v>
       </c>
       <c r="F19">
-        <v>45.81569739172942</v>
+        <v>22.39377241124481</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>14.17288207204379</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.84236880886882</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.367495291259842</v>
       </c>
       <c r="M19">
-        <v>24.49156457548562</v>
+        <v>14.75970987003747</v>
       </c>
       <c r="N19">
-        <v>12.34265861430194</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>16.4284679616244</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1159,40 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>32.21921570408552</v>
+        <v>25.54045873448166</v>
       </c>
       <c r="C20">
-        <v>23.93228108343782</v>
+        <v>14.97761255078694</v>
       </c>
       <c r="D20">
-        <v>4.06099137192768</v>
+        <v>5.116665226972845</v>
       </c>
       <c r="E20">
-        <v>11.08647293419485</v>
+        <v>7.129786871607021</v>
       </c>
       <c r="F20">
-        <v>46.72000965661623</v>
+        <v>22.46429251111246</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>14.06641917989411</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.823147647386826</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.419351788312173</v>
       </c>
       <c r="M20">
-        <v>25.02742665327866</v>
+        <v>14.98670354500858</v>
       </c>
       <c r="N20">
-        <v>12.28798882189963</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>16.44309836732297</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1200,40 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>34.50565917663032</v>
+        <v>27.11116066445464</v>
       </c>
       <c r="C21">
-        <v>25.63051553876737</v>
+        <v>15.74228282600404</v>
       </c>
       <c r="D21">
-        <v>4.082440173938792</v>
+        <v>5.20431822694856</v>
       </c>
       <c r="E21">
-        <v>11.92024785335613</v>
+        <v>7.028592673513791</v>
       </c>
       <c r="F21">
-        <v>49.92539570865328</v>
+        <v>22.73592912476034</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>13.72927875938398</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.759554809168874</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.593969024041064</v>
       </c>
       <c r="M21">
-        <v>26.79431925781695</v>
+        <v>15.72963053248024</v>
       </c>
       <c r="N21">
-        <v>12.11683746719332</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>16.52010056206786</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1241,40 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>35.96871408799668</v>
+        <v>28.09444472245067</v>
       </c>
       <c r="C22">
-        <v>26.71889155445371</v>
+        <v>16.22415260444537</v>
       </c>
       <c r="D22">
-        <v>4.106043084291663</v>
+        <v>5.262228807616697</v>
       </c>
       <c r="E22">
-        <v>12.45830369466087</v>
+        <v>6.963983833662453</v>
       </c>
       <c r="F22">
-        <v>52.02780833160885</v>
+        <v>22.94021083161265</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>13.52554082705471</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.718700700474647</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.708262751341437</v>
       </c>
       <c r="M22">
-        <v>27.92726502008966</v>
+        <v>16.20017986976925</v>
       </c>
       <c r="N22">
-        <v>12.01567611517209</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>16.5922323427082</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1282,40 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35.19045267729381</v>
+        <v>27.57357660319483</v>
       </c>
       <c r="C23">
-        <v>26.13976001480953</v>
+        <v>15.96861023679142</v>
       </c>
       <c r="D23">
-        <v>4.092483551486288</v>
+        <v>5.231266320675045</v>
       </c>
       <c r="E23">
-        <v>12.17163493165854</v>
+        <v>6.998328516098802</v>
       </c>
       <c r="F23">
-        <v>50.90650150539312</v>
+        <v>22.82867898416382</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>13.63267293110023</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.740442457404844</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.647253546484474</v>
       </c>
       <c r="M23">
-        <v>27.32436504987682</v>
+        <v>15.95042665260298</v>
       </c>
       <c r="N23">
-        <v>12.06859261499674</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>16.55167218874308</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1323,40 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>32.18126254753002</v>
+        <v>25.51404964902078</v>
       </c>
       <c r="C24">
-        <v>23.9041166605146</v>
+        <v>14.96481366407254</v>
       </c>
       <c r="D24">
-        <v>4.060784710556292</v>
+        <v>5.115243719979389</v>
       </c>
       <c r="E24">
-        <v>11.0727032776209</v>
+        <v>7.1314669557309</v>
       </c>
       <c r="F24">
-        <v>46.67038759122458</v>
+        <v>22.46029169882454</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>14.07219131137613</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.824199395269805</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.416502313123319</v>
       </c>
       <c r="M24">
-        <v>24.99813319734594</v>
+        <v>14.97431157118102</v>
       </c>
       <c r="N24">
-        <v>12.29094698053248</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>16.44219288858376</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1364,40 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>28.77819933238545</v>
+        <v>23.10389979740913</v>
       </c>
       <c r="C25">
-        <v>21.38158482988345</v>
+        <v>13.80599751795128</v>
       </c>
       <c r="D25">
-        <v>4.060151872079303</v>
+        <v>4.993050902404952</v>
       </c>
       <c r="E25">
-        <v>10.00349153080441</v>
+        <v>7.28178581665578</v>
       </c>
       <c r="F25">
-        <v>42.32111136403929</v>
+        <v>22.17184621203869</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>14.60965831736775</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.917764606491327</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>7.169113629962109</v>
       </c>
       <c r="M25">
-        <v>22.37585476780825</v>
+        <v>13.85908032545627</v>
       </c>
       <c r="N25">
-        <v>12.56853751039225</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>16.41085092275267</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.1637116135576</v>
+        <v>16.97360316259524</v>
       </c>
       <c r="C2">
-        <v>12.88864764536907</v>
+        <v>8.927199038821646</v>
       </c>
       <c r="D2">
-        <v>4.905920462794344</v>
+        <v>8.179484323685447</v>
       </c>
       <c r="E2">
-        <v>7.398419421999093</v>
+        <v>12.71991215803186</v>
       </c>
       <c r="F2">
-        <v>22.04586551603737</v>
+        <v>34.81600840799211</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
-        <v>15.05257367733752</v>
+        <v>25.90020916364016</v>
       </c>
       <c r="J2">
-        <v>5.989628945707952</v>
+        <v>9.934216296803267</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>6.989156007910487</v>
+        <v>11.31073906751209</v>
       </c>
       <c r="M2">
-        <v>12.98734245781322</v>
+        <v>16.43699828793618</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.45458305804322</v>
+        <v>26.75469176677645</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74387155810684</v>
+        <v>16.47134532421446</v>
       </c>
       <c r="C3">
-        <v>12.2281045047286</v>
+        <v>8.610807771909339</v>
       </c>
       <c r="D3">
-        <v>4.84879842142747</v>
+        <v>8.181699412178087</v>
       </c>
       <c r="E3">
-        <v>7.481268995532265</v>
+        <v>12.75325384499563</v>
       </c>
       <c r="F3">
-        <v>22.01036367549466</v>
+        <v>34.94969786146713</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
-        <v>15.37917215267503</v>
+        <v>26.04598948743862</v>
       </c>
       <c r="J3">
-        <v>6.040282113707631</v>
+        <v>9.952701352754108</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>6.869054999403082</v>
+        <v>11.30793128581069</v>
       </c>
       <c r="M3">
-        <v>12.36719761902864</v>
+        <v>16.31609476631338</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.52191836370586</v>
+        <v>26.87018873949428</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.81978002789725</v>
+        <v>16.15609732352274</v>
       </c>
       <c r="C4">
-        <v>11.80393727932793</v>
+        <v>8.409388972004313</v>
       </c>
       <c r="D4">
-        <v>4.814728070166908</v>
+        <v>8.183768361102507</v>
       </c>
       <c r="E4">
-        <v>7.534045671653941</v>
+        <v>12.77484751703678</v>
       </c>
       <c r="F4">
-        <v>22.01174183993085</v>
+        <v>35.04026403197653</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
-        <v>15.59190788492775</v>
+        <v>26.14085487560537</v>
       </c>
       <c r="J4">
-        <v>6.072375096537574</v>
+        <v>9.964656550594725</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.796400449266994</v>
+        <v>11.30733878506446</v>
       </c>
       <c r="M4">
-        <v>11.97292577737005</v>
+        <v>16.24291824750621</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.58053775954523</v>
+        <v>26.94731461301878</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.42997665841159</v>
+        <v>16.02608497996058</v>
       </c>
       <c r="C5">
-        <v>11.62652145500693</v>
+        <v>8.325597113346845</v>
       </c>
       <c r="D5">
-        <v>4.801104216499161</v>
+        <v>8.184790320582319</v>
       </c>
       <c r="E5">
-        <v>7.556036160881074</v>
+        <v>12.7839299496335</v>
       </c>
       <c r="F5">
-        <v>22.01791225950997</v>
+        <v>35.07929759271922</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
-        <v>15.68155788303782</v>
+        <v>26.18086078127814</v>
       </c>
       <c r="J5">
-        <v>6.085706779628777</v>
+        <v>9.969681047319192</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.767093245489668</v>
+        <v>11.30738307239281</v>
       </c>
       <c r="M5">
-        <v>11.80904088409649</v>
+        <v>16.21338629803003</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.60857535659876</v>
+        <v>26.98030246486561</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36444891872843</v>
+        <v>16.00440862042997</v>
       </c>
       <c r="C6">
-        <v>11.59678974035311</v>
+        <v>8.311582857480191</v>
       </c>
       <c r="D6">
-        <v>4.798857919851809</v>
+        <v>8.18497083492357</v>
       </c>
       <c r="E6">
-        <v>7.559716990230454</v>
+        <v>12.78545518576075</v>
       </c>
       <c r="F6">
-        <v>22.01926908724334</v>
+        <v>35.08590739916269</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
-        <v>15.6966199053276</v>
+        <v>26.18758514009088</v>
       </c>
       <c r="J6">
-        <v>6.087935927058861</v>
+        <v>9.970524594479176</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.762245706502627</v>
+        <v>11.30740771814485</v>
       </c>
       <c r="M6">
-        <v>11.78163951114064</v>
+        <v>16.20850056857323</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.61347598232285</v>
+        <v>26.98587410431334</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81457666600639</v>
+        <v>16.15434994644205</v>
       </c>
       <c r="C7">
-        <v>11.80156290383969</v>
+        <v>8.408265736152352</v>
       </c>
       <c r="D7">
-        <v>4.814543270780681</v>
+        <v>8.183781418689765</v>
       </c>
       <c r="E7">
-        <v>7.534340279728828</v>
+        <v>12.77496885968676</v>
       </c>
       <c r="F7">
-        <v>22.01180264049271</v>
+        <v>35.04078184681683</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
-        <v>15.59310509352614</v>
+        <v>26.14138895226683</v>
       </c>
       <c r="J7">
-        <v>6.072553860332964</v>
+        <v>9.964723694018025</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.796003951899357</v>
+        <v>11.30733822385021</v>
       </c>
       <c r="M7">
-        <v>11.97072833100277</v>
+        <v>16.24251877439453</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.58089933708089</v>
+        <v>26.94775319294547</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68496014727598</v>
+        <v>16.80195149638629</v>
       </c>
       <c r="C8">
-        <v>12.66480998350995</v>
+        <v>8.819641057639853</v>
       </c>
       <c r="D8">
-        <v>4.886021486426837</v>
+        <v>8.180101320800279</v>
       </c>
       <c r="E8">
-        <v>7.426592718161869</v>
+        <v>12.73117601561069</v>
       </c>
       <c r="F8">
-        <v>22.028684515373</v>
+        <v>34.86034128753486</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
-        <v>15.16258176864753</v>
+        <v>25.94936309808275</v>
       </c>
       <c r="J8">
-        <v>6.006890872544135</v>
+        <v>9.940464585190183</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>6.94753528131105</v>
+        <v>11.30953685048111</v>
       </c>
       <c r="M8">
-        <v>12.77641670137953</v>
+        <v>16.39510425348552</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.47409721900271</v>
+        <v>26.79322427583579</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.94126501229418</v>
+        <v>18.0102943951129</v>
       </c>
       <c r="C9">
-        <v>14.2064209378204</v>
+        <v>9.566254641836032</v>
       </c>
       <c r="D9">
-        <v>5.033791162778637</v>
+        <v>8.178482941893904</v>
       </c>
       <c r="E9">
-        <v>7.230237981455158</v>
+        <v>12.65416392544987</v>
       </c>
       <c r="F9">
-        <v>22.25507825397608</v>
+        <v>34.574017428469</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
-        <v>14.42083786610817</v>
+        <v>25.61526115507183</v>
       </c>
       <c r="J9">
-        <v>5.88579839852249</v>
+        <v>9.897674795464003</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.252168864476638</v>
+        <v>11.32277126833792</v>
       </c>
       <c r="M9">
-        <v>14.24284760301452</v>
+        <v>16.7017474894972</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.41050328128866</v>
+        <v>26.53961049476535</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08773634395323</v>
+        <v>18.85185638328612</v>
       </c>
       <c r="C10">
-        <v>15.24329072527385</v>
+        <v>10.0743084607989</v>
       </c>
       <c r="D10">
-        <v>5.146515779281224</v>
+        <v>8.18067102501773</v>
       </c>
       <c r="E10">
-        <v>7.094810885376593</v>
+        <v>12.60293877286647</v>
       </c>
       <c r="F10">
-        <v>22.55139042682803</v>
+        <v>34.40512485986784</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
-        <v>13.94751954433594</v>
+        <v>25.39563289959223</v>
       </c>
       <c r="J10">
-        <v>5.801222299245894</v>
+        <v>9.869123757873906</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.479053683573903</v>
+        <v>11.33785814413247</v>
       </c>
       <c r="M10">
-        <v>15.24426570837459</v>
+        <v>16.93023627193091</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.46472147518912</v>
+        <v>26.38359764035931</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.01191220751926</v>
+        <v>19.22310808565301</v>
       </c>
       <c r="C11">
-        <v>15.69377434914165</v>
+        <v>10.29599013201311</v>
       </c>
       <c r="D11">
-        <v>5.19860120130063</v>
+        <v>8.182391654653731</v>
       </c>
       <c r="E11">
-        <v>7.035060410931634</v>
+        <v>12.58078763064008</v>
       </c>
       <c r="F11">
-        <v>22.71678620808818</v>
+        <v>34.33735817567422</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
-        <v>13.75018518726415</v>
+        <v>25.30131964981396</v>
       </c>
       <c r="J11">
-        <v>5.763633694962377</v>
+        <v>9.85675584473349</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.582641743436922</v>
+        <v>11.34586855992479</v>
       </c>
       <c r="M11">
-        <v>15.68235872367228</v>
+        <v>17.03458952136333</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.51386159918334</v>
+        <v>26.31924689785462</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.35444845643299</v>
+        <v>19.36191317263303</v>
       </c>
       <c r="C12">
-        <v>15.86129440048965</v>
+        <v>10.37853314289658</v>
       </c>
       <c r="D12">
-        <v>5.218432518263329</v>
+        <v>8.183146759054209</v>
       </c>
       <c r="E12">
-        <v>7.012696611255379</v>
+        <v>12.57256436227206</v>
       </c>
       <c r="F12">
-        <v>22.78399502166694</v>
+        <v>34.31300482435236</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
-        <v>13.6782843571197</v>
+        <v>25.26641014116439</v>
       </c>
       <c r="J12">
-        <v>5.749521556521507</v>
+        <v>9.852161147404974</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.621899290994477</v>
+        <v>11.349065228991</v>
       </c>
       <c r="M12">
-        <v>15.84568508721508</v>
+        <v>17.07414040991737</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.5361952693875</v>
+        <v>26.29583428928692</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.28100615292656</v>
+        <v>19.3320998748416</v>
       </c>
       <c r="C13">
-        <v>15.8253526349961</v>
+        <v>10.36081910070722</v>
       </c>
       <c r="D13">
-        <v>5.214156825936887</v>
+        <v>8.182979541155037</v>
       </c>
       <c r="E13">
-        <v>7.017501456649455</v>
+        <v>12.57432806765886</v>
       </c>
       <c r="F13">
-        <v>22.76931415943461</v>
+        <v>34.31819148303418</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
-        <v>13.69363967299515</v>
+        <v>25.27389272952698</v>
       </c>
       <c r="J13">
-        <v>5.752555529011564</v>
+        <v>9.85314675635545</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.613443446974435</v>
+        <v>11.34836953401606</v>
       </c>
       <c r="M13">
-        <v>15.81062491211813</v>
+        <v>17.06562127386704</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.531216398378</v>
+        <v>26.30083405467169</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.04024125658336</v>
+        <v>19.23456395004575</v>
       </c>
       <c r="C14">
-        <v>15.70761789692432</v>
+        <v>10.30280935732248</v>
       </c>
       <c r="D14">
-        <v>5.200230622913383</v>
+        <v>8.182451706874676</v>
       </c>
       <c r="E14">
-        <v>7.033215294392317</v>
+        <v>12.58010779670312</v>
       </c>
       <c r="F14">
-        <v>22.72222282075916</v>
+        <v>34.33532835965313</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
-        <v>13.744211752274</v>
+        <v>25.29843149198691</v>
       </c>
       <c r="J14">
-        <v>5.762470271178157</v>
+        <v>9.856376059590247</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.585870990669622</v>
+        <v>11.34612828899235</v>
       </c>
       <c r="M14">
-        <v>15.69584747236621</v>
+        <v>17.03784284529539</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.51562317885152</v>
+        <v>26.31730155577261</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.89180092809689</v>
+        <v>19.17458538522665</v>
       </c>
       <c r="C15">
-        <v>15.63510196271314</v>
+        <v>10.26709272997464</v>
       </c>
       <c r="D15">
-        <v>5.191714209561987</v>
+        <v>8.182141854202431</v>
       </c>
       <c r="E15">
-        <v>7.042874513544055</v>
+        <v>12.5836695007009</v>
       </c>
       <c r="F15">
-        <v>22.69397910433323</v>
+        <v>34.34599573417494</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
-        <v>13.77556421239456</v>
+        <v>25.31356701417621</v>
       </c>
       <c r="J15">
-        <v>5.768559038080904</v>
+        <v>9.858365648632441</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.568985444179112</v>
+        <v>11.34477667666296</v>
       </c>
       <c r="M15">
-        <v>15.62520679667043</v>
+        <v>17.02083152533735</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.50656306705344</v>
+        <v>26.32751293265038</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.02629491746254</v>
+        <v>18.82735111915035</v>
       </c>
       <c r="C16">
-        <v>15.2134220595329</v>
+        <v>10.05962708846336</v>
       </c>
       <c r="D16">
-        <v>5.143127385099133</v>
+        <v>8.180573108257818</v>
       </c>
       <c r="E16">
-        <v>7.098752684361632</v>
+        <v>12.60440951310393</v>
       </c>
       <c r="F16">
-        <v>22.54121258580684</v>
+        <v>34.40973639354107</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
-        <v>13.96079742383369</v>
+        <v>25.40190911677256</v>
       </c>
       <c r="J16">
-        <v>5.803696158905953</v>
+        <v>9.869944473206923</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.47228952093045</v>
+        <v>11.33735758938091</v>
       </c>
       <c r="M16">
-        <v>15.21527854730929</v>
+        <v>16.92342272677951</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.4620202563903</v>
+        <v>26.38793664144499</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.48200955830971</v>
+        <v>18.61128290216378</v>
       </c>
       <c r="C17">
-        <v>14.94928848266275</v>
+        <v>9.929902215621924</v>
       </c>
       <c r="D17">
-        <v>5.1135214701459</v>
+        <v>8.179795963706656</v>
       </c>
       <c r="E17">
-        <v>7.13350431820756</v>
+        <v>12.61742725881988</v>
       </c>
       <c r="F17">
-        <v>22.45546270811063</v>
+        <v>34.45116429197963</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
-        <v>14.07919827941967</v>
+        <v>25.45753761538365</v>
       </c>
       <c r="J17">
-        <v>5.825474625099714</v>
+        <v>9.877206238496395</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.41304918515262</v>
+        <v>11.33309890169629</v>
       </c>
       <c r="M17">
-        <v>14.95928198560771</v>
+        <v>16.86375362990942</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.44111125568668</v>
+        <v>26.42670284410622</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.16402629852982</v>
+        <v>18.48592237212869</v>
       </c>
       <c r="C18">
-        <v>14.79537144411135</v>
+        <v>9.85440222063443</v>
       </c>
       <c r="D18">
-        <v>5.09656930739597</v>
+        <v>8.179417282404563</v>
       </c>
       <c r="E18">
-        <v>7.153667503877752</v>
+        <v>12.62502314116985</v>
       </c>
       <c r="F18">
-        <v>22.40901227834836</v>
+        <v>34.47584532152922</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
-        <v>14.1489755846499</v>
+        <v>25.49006043894939</v>
       </c>
       <c r="J18">
-        <v>5.83808471324176</v>
+        <v>9.881441404328873</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.379012481954804</v>
+        <v>11.33075751410527</v>
       </c>
       <c r="M18">
-        <v>14.81039884653147</v>
+        <v>16.82947385590327</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.43137666144382</v>
+        <v>26.4496230571139</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.05551420951602</v>
+        <v>18.44329500360845</v>
       </c>
       <c r="C19">
-        <v>14.74291606051917</v>
+        <v>9.8286886196592</v>
       </c>
       <c r="D19">
-        <v>5.090842973111115</v>
+        <v>8.17930082246429</v>
       </c>
       <c r="E19">
-        <v>7.160524598498144</v>
+        <v>12.62761361857056</v>
       </c>
       <c r="F19">
-        <v>22.39377241124481</v>
+        <v>34.48434820316517</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
-        <v>14.17288207204379</v>
+        <v>25.50116258304361</v>
       </c>
       <c r="J19">
-        <v>5.84236880886882</v>
+        <v>9.882885399779985</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.367495291259842</v>
+        <v>11.32998337631866</v>
       </c>
       <c r="M19">
-        <v>14.75970987003747</v>
+        <v>16.81787499185853</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.4284679616244</v>
+        <v>26.45749032282473</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.54045873448166</v>
+        <v>18.63439677267414</v>
       </c>
       <c r="C20">
-        <v>14.97761255078694</v>
+        <v>9.943803669946623</v>
       </c>
       <c r="D20">
-        <v>5.116665226972845</v>
+        <v>8.179871627432551</v>
       </c>
       <c r="E20">
-        <v>7.129786871607021</v>
+        <v>12.6160302815692</v>
       </c>
       <c r="F20">
-        <v>22.46429251111246</v>
+        <v>34.44666592221579</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
-        <v>14.06641917989411</v>
+        <v>25.45156134650795</v>
       </c>
       <c r="J20">
-        <v>5.823147647386826</v>
+        <v>9.876427170939632</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.419351788312173</v>
+        <v>11.33354107060516</v>
       </c>
       <c r="M20">
-        <v>14.98670354500858</v>
+        <v>16.87010151438101</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.44309836732297</v>
+        <v>26.42251161942849</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.11116066445464</v>
+        <v>19.26326177629173</v>
       </c>
       <c r="C21">
-        <v>15.74228282600404</v>
+        <v>10.31988664142158</v>
       </c>
       <c r="D21">
-        <v>5.20431822694856</v>
+        <v>8.182603940706548</v>
       </c>
       <c r="E21">
-        <v>7.028592673513791</v>
+        <v>12.57840568059617</v>
       </c>
       <c r="F21">
-        <v>22.73592912476034</v>
+        <v>34.33025929383927</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
-        <v>13.72927875938398</v>
+        <v>25.29120201764239</v>
       </c>
       <c r="J21">
-        <v>5.759554809168874</v>
+        <v>9.855425129167958</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.593969024041064</v>
+        <v>11.34678217891999</v>
       </c>
       <c r="M21">
-        <v>15.72963053248024</v>
+        <v>17.04600130159352</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.52010056206786</v>
+        <v>26.31243868755565</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.09444472245067</v>
+        <v>19.66384199829103</v>
       </c>
       <c r="C22">
-        <v>16.22415260444537</v>
+        <v>10.55748345235344</v>
       </c>
       <c r="D22">
-        <v>5.262228807616697</v>
+        <v>8.18499280260799</v>
       </c>
       <c r="E22">
-        <v>6.963983833662453</v>
+        <v>12.55477661080576</v>
       </c>
       <c r="F22">
-        <v>22.94021083161265</v>
+        <v>34.26180951221469</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
-        <v>13.52554082705471</v>
+        <v>25.19108943265715</v>
       </c>
       <c r="J22">
-        <v>5.718700700474647</v>
+        <v>9.84221627347342</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.708262751341437</v>
+        <v>11.35638700127515</v>
       </c>
       <c r="M22">
-        <v>16.20017986976925</v>
+        <v>17.16115211202992</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.5922323427082</v>
+        <v>26.24607140104292</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.57357660319483</v>
+        <v>19.45103303406447</v>
       </c>
       <c r="C23">
-        <v>15.96861023679142</v>
+        <v>10.43143715227801</v>
       </c>
       <c r="D23">
-        <v>5.231266320675045</v>
+        <v>8.183662890795775</v>
       </c>
       <c r="E23">
-        <v>6.998328516098802</v>
+        <v>12.56730020367159</v>
       </c>
       <c r="F23">
-        <v>22.82867898416382</v>
+        <v>34.29764279744926</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
-        <v>13.63267293110023</v>
+        <v>25.24409208464454</v>
       </c>
       <c r="J23">
-        <v>5.740442457404844</v>
+        <v>9.849218898403267</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.647253546484474</v>
+        <v>11.35117428738685</v>
       </c>
       <c r="M23">
-        <v>15.95042665260298</v>
+        <v>17.09968471494021</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.55167218874308</v>
+        <v>26.28098187044399</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.51404964902078</v>
+        <v>18.62395053392397</v>
       </c>
       <c r="C24">
-        <v>14.96481366407254</v>
+        <v>9.937521682752342</v>
       </c>
       <c r="D24">
-        <v>5.115243719979389</v>
+        <v>8.179837207664814</v>
       </c>
       <c r="E24">
-        <v>7.1314669557309</v>
+        <v>12.61666150666631</v>
       </c>
       <c r="F24">
-        <v>22.46029169882454</v>
+        <v>34.44869694556186</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
-        <v>14.07219131137613</v>
+        <v>25.45426153165138</v>
       </c>
       <c r="J24">
-        <v>5.824199395269805</v>
+        <v>9.87677919957971</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.416502313123319</v>
+        <v>11.33334083265834</v>
       </c>
       <c r="M24">
-        <v>14.97431157118102</v>
+        <v>16.86723155671622</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.44219288858376</v>
+        <v>26.42440450057791</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.10389979740913</v>
+        <v>17.69094625406605</v>
       </c>
       <c r="C25">
-        <v>13.80599751795128</v>
+        <v>9.371138443177427</v>
       </c>
       <c r="D25">
-        <v>4.993050902404952</v>
+        <v>8.178325005762662</v>
       </c>
       <c r="E25">
-        <v>7.28178581665578</v>
+        <v>12.67405371194164</v>
       </c>
       <c r="F25">
-        <v>22.17184621203869</v>
+        <v>34.64421464938716</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
-        <v>14.60965831736775</v>
+        <v>25.70110424617196</v>
       </c>
       <c r="J25">
-        <v>5.917764606491327</v>
+        <v>9.908741582628435</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.169113629962109</v>
+        <v>11.3182433013801</v>
       </c>
       <c r="M25">
-        <v>13.85908032545627</v>
+        <v>16.61813367952541</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.41085092275267</v>
+        <v>26.60290943722659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.97360316259524</v>
+        <v>21.16371161355755</v>
       </c>
       <c r="C2">
-        <v>8.927199038821646</v>
+        <v>12.88864764536901</v>
       </c>
       <c r="D2">
-        <v>8.179484323685447</v>
+        <v>4.905920462794191</v>
       </c>
       <c r="E2">
-        <v>12.71991215803186</v>
+        <v>7.398419421998898</v>
       </c>
       <c r="F2">
-        <v>34.81600840799211</v>
+        <v>22.04586551603759</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
-        <v>25.90020916364016</v>
+        <v>15.05257367733782</v>
       </c>
       <c r="J2">
-        <v>9.934216296803267</v>
+        <v>5.989628945707953</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>11.31073906751209</v>
+        <v>6.989156007910395</v>
       </c>
       <c r="M2">
-        <v>16.43699828793618</v>
+        <v>12.9873424578132</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.75469176677645</v>
+        <v>16.4545830580435</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.47134532421446</v>
+        <v>19.74387155810686</v>
       </c>
       <c r="C3">
-        <v>8.610807771909339</v>
+        <v>12.2281045047286</v>
       </c>
       <c r="D3">
-        <v>8.181699412178087</v>
+        <v>4.848798421427465</v>
       </c>
       <c r="E3">
-        <v>12.75325384499563</v>
+        <v>7.481268995532329</v>
       </c>
       <c r="F3">
-        <v>34.94969786146713</v>
+        <v>22.01036367549467</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
-        <v>26.04598948743862</v>
+        <v>15.37917215267504</v>
       </c>
       <c r="J3">
-        <v>9.952701352754108</v>
+        <v>6.040282113707664</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>11.30793128581069</v>
+        <v>6.869054999403098</v>
       </c>
       <c r="M3">
-        <v>16.31609476631338</v>
+        <v>12.36719761902864</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>26.87018873949428</v>
+        <v>16.52191836370586</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.15609732352274</v>
+        <v>18.81978002789722</v>
       </c>
       <c r="C4">
-        <v>8.409388972004313</v>
+        <v>11.80393727932804</v>
       </c>
       <c r="D4">
-        <v>8.183768361102507</v>
+        <v>4.814728070167009</v>
       </c>
       <c r="E4">
-        <v>12.77484751703678</v>
+        <v>7.534045671654073</v>
       </c>
       <c r="F4">
-        <v>35.04026403197653</v>
+        <v>22.01174183993097</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
-        <v>26.14085487560537</v>
+        <v>15.59190788492789</v>
       </c>
       <c r="J4">
-        <v>9.964656550594725</v>
+        <v>6.072375096537608</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>11.30733878506446</v>
+        <v>6.796400449267004</v>
       </c>
       <c r="M4">
-        <v>16.24291824750621</v>
+        <v>11.97292577737009</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>26.94731461301878</v>
+        <v>16.58053775954528</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.02608497996058</v>
+        <v>18.42997665841156</v>
       </c>
       <c r="C5">
-        <v>8.325597113346845</v>
+        <v>11.62652145500693</v>
       </c>
       <c r="D5">
-        <v>8.184790320582319</v>
+        <v>4.801104216499095</v>
       </c>
       <c r="E5">
-        <v>12.7839299496335</v>
+        <v>7.556036160881208</v>
       </c>
       <c r="F5">
-        <v>35.07929759271922</v>
+        <v>22.0179122595101</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
-        <v>26.18086078127814</v>
+        <v>15.68155788303801</v>
       </c>
       <c r="J5">
-        <v>9.969681047319192</v>
+        <v>6.08570677962881</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>11.30738307239281</v>
+        <v>6.767093245489628</v>
       </c>
       <c r="M5">
-        <v>16.21338629803003</v>
+        <v>11.80904088409654</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>26.98030246486561</v>
+        <v>16.60857535659889</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.00440862042997</v>
+        <v>18.36444891872845</v>
       </c>
       <c r="C6">
-        <v>8.311582857480191</v>
+        <v>11.59678974035287</v>
       </c>
       <c r="D6">
-        <v>8.18497083492357</v>
+        <v>4.798857919851913</v>
       </c>
       <c r="E6">
-        <v>12.78545518576075</v>
+        <v>7.559716990230318</v>
       </c>
       <c r="F6">
-        <v>35.08590739916269</v>
+        <v>22.01926908724349</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
-        <v>26.18758514009088</v>
+        <v>15.6966199053276</v>
       </c>
       <c r="J6">
-        <v>9.970524594479176</v>
+        <v>6.087935927058759</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>11.30740771814485</v>
+        <v>6.762245706502669</v>
       </c>
       <c r="M6">
-        <v>16.20850056857323</v>
+        <v>11.78163951114065</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>26.98587410431334</v>
+        <v>16.61347598232292</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.15434994644205</v>
+        <v>18.81457666600635</v>
       </c>
       <c r="C7">
-        <v>8.408265736152352</v>
+        <v>11.80156290383982</v>
       </c>
       <c r="D7">
-        <v>8.183781418689765</v>
+        <v>4.814543270780788</v>
       </c>
       <c r="E7">
-        <v>12.77496885968676</v>
+        <v>7.534340279729027</v>
       </c>
       <c r="F7">
-        <v>35.04078184681683</v>
+        <v>22.01180264049291</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
-        <v>26.14138895226683</v>
+        <v>15.59310509352633</v>
       </c>
       <c r="J7">
-        <v>9.964723694018025</v>
+        <v>6.072553860332995</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>11.30733822385021</v>
+        <v>6.796003951899402</v>
       </c>
       <c r="M7">
-        <v>16.24251877439453</v>
+        <v>11.97072833100282</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>26.94775319294547</v>
+        <v>16.58089933708102</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.80195149638629</v>
+        <v>20.68496014727597</v>
       </c>
       <c r="C8">
-        <v>8.819641057639853</v>
+        <v>12.66480998350998</v>
       </c>
       <c r="D8">
-        <v>8.180101320800279</v>
+        <v>4.886021486426951</v>
       </c>
       <c r="E8">
-        <v>12.73117601561069</v>
+        <v>7.426592718162002</v>
       </c>
       <c r="F8">
-        <v>34.86034128753486</v>
+        <v>22.02868451537306</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
-        <v>25.94936309808275</v>
+        <v>15.16258176864759</v>
       </c>
       <c r="J8">
-        <v>9.940464585190183</v>
+        <v>6.006890872544171</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>11.30953685048111</v>
+        <v>6.947535281311066</v>
       </c>
       <c r="M8">
-        <v>16.39510425348552</v>
+        <v>12.77641670137953</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>26.79322427583579</v>
+        <v>16.47409721900271</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.0102943951129</v>
+        <v>23.94126501229419</v>
       </c>
       <c r="C9">
-        <v>9.566254641836032</v>
+        <v>14.2064209378203</v>
       </c>
       <c r="D9">
-        <v>8.178482941893904</v>
+        <v>5.03379116277858</v>
       </c>
       <c r="E9">
-        <v>12.65416392544987</v>
+        <v>7.230237981455158</v>
       </c>
       <c r="F9">
-        <v>34.574017428469</v>
+        <v>22.25507825397615</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
-        <v>25.61526115507183</v>
+        <v>14.42083786610824</v>
       </c>
       <c r="J9">
-        <v>9.897674795464003</v>
+        <v>5.88579839852249</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>11.32277126833792</v>
+        <v>7.252168864476652</v>
       </c>
       <c r="M9">
-        <v>16.7017474894972</v>
+        <v>14.24284760301452</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>26.53961049476535</v>
+        <v>16.41050328128875</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.85185638328612</v>
+        <v>26.08773634395317</v>
       </c>
       <c r="C10">
-        <v>10.0743084607989</v>
+        <v>15.24329072527384</v>
       </c>
       <c r="D10">
-        <v>8.18067102501773</v>
+        <v>5.146515779281213</v>
       </c>
       <c r="E10">
-        <v>12.60293877286647</v>
+        <v>7.094810885376597</v>
       </c>
       <c r="F10">
-        <v>34.40512485986784</v>
+        <v>22.55139042682834</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
-        <v>25.39563289959223</v>
+        <v>13.9475195443362</v>
       </c>
       <c r="J10">
-        <v>9.869123757873906</v>
+        <v>5.801222299245893</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>11.33785814413247</v>
+        <v>7.479053683573884</v>
       </c>
       <c r="M10">
-        <v>16.93023627193091</v>
+        <v>15.24426570837459</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>26.38359764035931</v>
+        <v>16.46472147518934</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>19.22310808565301</v>
+        <v>27.01191220751925</v>
       </c>
       <c r="C11">
-        <v>10.29599013201311</v>
+        <v>15.69377434914172</v>
       </c>
       <c r="D11">
-        <v>8.182391654653731</v>
+        <v>5.198601201300581</v>
       </c>
       <c r="E11">
-        <v>12.58078763064008</v>
+        <v>7.035060410931568</v>
       </c>
       <c r="F11">
-        <v>34.33735817567422</v>
+        <v>22.71678620808812</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
-        <v>25.30131964981396</v>
+        <v>13.75018518726411</v>
       </c>
       <c r="J11">
-        <v>9.85675584473349</v>
+        <v>5.76363369496231</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.34586855992479</v>
+        <v>7.582641743436853</v>
       </c>
       <c r="M11">
-        <v>17.03458952136333</v>
+        <v>15.68235872367226</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>26.31924689785462</v>
+        <v>16.51386159918328</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>19.36191317263303</v>
+        <v>27.35444845643308</v>
       </c>
       <c r="C12">
-        <v>10.37853314289658</v>
+        <v>15.86129440048962</v>
       </c>
       <c r="D12">
-        <v>8.183146759054209</v>
+        <v>5.218432518263236</v>
       </c>
       <c r="E12">
-        <v>12.57256436227206</v>
+        <v>7.01269661125538</v>
       </c>
       <c r="F12">
-        <v>34.31300482435236</v>
+        <v>22.7839950216668</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
-        <v>25.26641014116439</v>
+        <v>13.67828435711961</v>
       </c>
       <c r="J12">
-        <v>9.852161147404974</v>
+        <v>5.749521556521605</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.349065228991</v>
+        <v>7.621899290994487</v>
       </c>
       <c r="M12">
-        <v>17.07414040991737</v>
+        <v>15.84568508721508</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>26.29583428928692</v>
+        <v>16.53619526938743</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>19.3320998748416</v>
+        <v>27.2810061529266</v>
       </c>
       <c r="C13">
-        <v>10.36081910070722</v>
+        <v>15.82535263499615</v>
       </c>
       <c r="D13">
-        <v>8.182979541155037</v>
+        <v>5.21415682593689</v>
       </c>
       <c r="E13">
-        <v>12.57432806765886</v>
+        <v>7.017501456649387</v>
       </c>
       <c r="F13">
-        <v>34.31819148303418</v>
+        <v>22.76931415943453</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
-        <v>25.27389272952698</v>
+        <v>13.69363967299507</v>
       </c>
       <c r="J13">
-        <v>9.85314675635545</v>
+        <v>5.752555529011564</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.34836953401606</v>
+        <v>7.613443446974394</v>
       </c>
       <c r="M13">
-        <v>17.06562127386704</v>
+        <v>15.81062491211812</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>26.30083405467169</v>
+        <v>16.53121639837795</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>19.23456395004575</v>
+        <v>27.0402412565834</v>
       </c>
       <c r="C14">
-        <v>10.30280935732248</v>
+        <v>15.70761789692409</v>
       </c>
       <c r="D14">
-        <v>8.182451706874676</v>
+        <v>5.200230622913468</v>
       </c>
       <c r="E14">
-        <v>12.58010779670312</v>
+        <v>7.033215294392317</v>
       </c>
       <c r="F14">
-        <v>34.33532835965313</v>
+        <v>22.72222282075917</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
-        <v>25.29843149198691</v>
+        <v>13.74421175227397</v>
       </c>
       <c r="J14">
-        <v>9.856376059590247</v>
+        <v>5.762470271178088</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.34612828899235</v>
+        <v>7.585870990669662</v>
       </c>
       <c r="M14">
-        <v>17.03784284529539</v>
+        <v>15.69584747236621</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>26.31730155577261</v>
+        <v>16.51562317885151</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.17458538522665</v>
+        <v>26.89180092809692</v>
       </c>
       <c r="C15">
-        <v>10.26709272997464</v>
+        <v>15.6351019627132</v>
       </c>
       <c r="D15">
-        <v>8.182141854202431</v>
+        <v>5.191714209562055</v>
       </c>
       <c r="E15">
-        <v>12.5836695007009</v>
+        <v>7.042874513544121</v>
       </c>
       <c r="F15">
-        <v>34.34599573417494</v>
+        <v>22.69397910433317</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
-        <v>25.31356701417621</v>
+        <v>13.7755642123945</v>
       </c>
       <c r="J15">
-        <v>9.858365648632441</v>
+        <v>5.768559038080901</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.34477667666296</v>
+        <v>7.568985444179109</v>
       </c>
       <c r="M15">
-        <v>17.02083152533735</v>
+        <v>15.62520679667042</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>26.32751293265038</v>
+        <v>16.50656306705336</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.82735111915035</v>
+        <v>26.02629491746248</v>
       </c>
       <c r="C16">
-        <v>10.05962708846336</v>
+        <v>15.21342205953309</v>
       </c>
       <c r="D16">
-        <v>8.180573108257818</v>
+        <v>5.14312738509912</v>
       </c>
       <c r="E16">
-        <v>12.60440951310393</v>
+        <v>7.098752684361634</v>
       </c>
       <c r="F16">
-        <v>34.40973639354107</v>
+        <v>22.54121258580693</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
-        <v>25.40190911677256</v>
+        <v>13.96079742383387</v>
       </c>
       <c r="J16">
-        <v>9.869944473206923</v>
+        <v>5.803696158906018</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>11.33735758938091</v>
+        <v>7.472289520930319</v>
       </c>
       <c r="M16">
-        <v>16.92342272677951</v>
+        <v>15.2152785473093</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>26.38793664144499</v>
+        <v>16.46202025639043</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>18.61128290216378</v>
+        <v>25.48200955830969</v>
       </c>
       <c r="C17">
-        <v>9.929902215621924</v>
+        <v>14.94928848266267</v>
       </c>
       <c r="D17">
-        <v>8.179795963706656</v>
+        <v>5.11352147014585</v>
       </c>
       <c r="E17">
-        <v>12.61742725881988</v>
+        <v>7.133504318207564</v>
       </c>
       <c r="F17">
-        <v>34.45116429197963</v>
+        <v>22.45546270811063</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
-        <v>25.45753761538365</v>
+        <v>14.07919827941972</v>
       </c>
       <c r="J17">
-        <v>9.877206238496395</v>
+        <v>5.82547462509978</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>11.33309890169629</v>
+        <v>7.413049185152603</v>
       </c>
       <c r="M17">
-        <v>16.86375362990942</v>
+        <v>14.95928198560771</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>26.42670284410622</v>
+        <v>16.44111125568669</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>18.48592237212869</v>
+        <v>25.16402629852984</v>
       </c>
       <c r="C18">
-        <v>9.85440222063443</v>
+        <v>14.79537144411132</v>
       </c>
       <c r="D18">
-        <v>8.179417282404563</v>
+        <v>5.096569307396126</v>
       </c>
       <c r="E18">
-        <v>12.62502314116985</v>
+        <v>7.153667503877887</v>
       </c>
       <c r="F18">
-        <v>34.47584532152922</v>
+        <v>22.40901227834838</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
-        <v>25.49006043894939</v>
+        <v>14.14897558464988</v>
       </c>
       <c r="J18">
-        <v>9.881441404328873</v>
+        <v>5.838084713241829</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>11.33075751410527</v>
+        <v>7.379012481954815</v>
       </c>
       <c r="M18">
-        <v>16.82947385590327</v>
+        <v>14.81039884653148</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>26.4496230571139</v>
+        <v>16.43137666144382</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.44329500360845</v>
+        <v>25.05551420951604</v>
       </c>
       <c r="C19">
-        <v>9.8286886196592</v>
+        <v>14.74291606051925</v>
       </c>
       <c r="D19">
-        <v>8.17930082246429</v>
+        <v>5.090842973111124</v>
       </c>
       <c r="E19">
-        <v>12.62761361857056</v>
+        <v>7.160524598498143</v>
       </c>
       <c r="F19">
-        <v>34.48434820316517</v>
+        <v>22.39377241124454</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
-        <v>25.50116258304361</v>
+        <v>14.17288207204367</v>
       </c>
       <c r="J19">
-        <v>9.882885399779985</v>
+        <v>5.842368808868824</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>11.32998337631866</v>
+        <v>7.367495291259813</v>
       </c>
       <c r="M19">
-        <v>16.81787499185853</v>
+        <v>14.75970987003746</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>26.45749032282473</v>
+        <v>16.42846796162424</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>18.63439677267414</v>
+        <v>25.54045873448167</v>
       </c>
       <c r="C20">
-        <v>9.943803669946623</v>
+        <v>14.97761255078689</v>
       </c>
       <c r="D20">
-        <v>8.179871627432551</v>
+        <v>5.116665226972797</v>
       </c>
       <c r="E20">
-        <v>12.6160302815692</v>
+        <v>7.129786871607021</v>
       </c>
       <c r="F20">
-        <v>34.44666592221579</v>
+        <v>22.46429251111243</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
-        <v>25.45156134650795</v>
+        <v>14.06641917989412</v>
       </c>
       <c r="J20">
-        <v>9.876427170939632</v>
+        <v>5.823147647386792</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>11.33354107060516</v>
+        <v>7.419351788312123</v>
       </c>
       <c r="M20">
-        <v>16.87010151438101</v>
+        <v>14.9867035450086</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>26.42251161942849</v>
+        <v>16.44309836732297</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>19.26326177629173</v>
+        <v>27.11116066445465</v>
       </c>
       <c r="C21">
-        <v>10.31988664142158</v>
+        <v>15.74228282600395</v>
       </c>
       <c r="D21">
-        <v>8.182603940706548</v>
+        <v>5.204318226948453</v>
       </c>
       <c r="E21">
-        <v>12.57840568059617</v>
+        <v>7.028592673513923</v>
       </c>
       <c r="F21">
-        <v>34.33025929383927</v>
+        <v>22.73592912476041</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
-        <v>25.29120201764239</v>
+        <v>13.72927875938405</v>
       </c>
       <c r="J21">
-        <v>9.855425129167958</v>
+        <v>5.75955480916894</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.34678217891999</v>
+        <v>7.593969024041192</v>
       </c>
       <c r="M21">
-        <v>17.04600130159352</v>
+        <v>15.72963053248026</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>26.31243868755565</v>
+        <v>16.52010056206793</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.66384199829103</v>
+        <v>28.09444472245065</v>
       </c>
       <c r="C22">
-        <v>10.55748345235344</v>
+        <v>16.22415260444537</v>
       </c>
       <c r="D22">
-        <v>8.18499280260799</v>
+        <v>5.262228807616587</v>
       </c>
       <c r="E22">
-        <v>12.55477661080576</v>
+        <v>6.963983833662517</v>
       </c>
       <c r="F22">
-        <v>34.26180951221469</v>
+        <v>22.94021083161251</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
-        <v>25.19108943265715</v>
+        <v>13.52554082705466</v>
       </c>
       <c r="J22">
-        <v>9.84221627347342</v>
+        <v>5.718700700474747</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.35638700127515</v>
+        <v>7.708262751341461</v>
       </c>
       <c r="M22">
-        <v>17.16115211202992</v>
+        <v>16.20017986976926</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>26.24607140104292</v>
+        <v>16.59223234270814</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>19.45103303406447</v>
+        <v>27.57357660319484</v>
       </c>
       <c r="C23">
-        <v>10.43143715227801</v>
+        <v>15.96861023679131</v>
       </c>
       <c r="D23">
-        <v>8.183662890795775</v>
+        <v>5.231266320675002</v>
       </c>
       <c r="E23">
-        <v>12.56730020367159</v>
+        <v>6.998328516098804</v>
       </c>
       <c r="F23">
-        <v>34.29764279744926</v>
+        <v>22.82867898416379</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
-        <v>25.24409208464454</v>
+        <v>13.63267293110022</v>
       </c>
       <c r="J23">
-        <v>9.849218898403267</v>
+        <v>5.740442457404908</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.35117428738685</v>
+        <v>7.647253546484459</v>
       </c>
       <c r="M23">
-        <v>17.09968471494021</v>
+        <v>15.95042665260298</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>26.28098187044399</v>
+        <v>16.55167218874308</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>18.62395053392397</v>
+        <v>25.51404964902073</v>
       </c>
       <c r="C24">
-        <v>9.937521682752342</v>
+        <v>14.96481366407262</v>
       </c>
       <c r="D24">
-        <v>8.179837207664814</v>
+        <v>5.115243719979533</v>
       </c>
       <c r="E24">
-        <v>12.61666150666631</v>
+        <v>7.131466955730899</v>
       </c>
       <c r="F24">
-        <v>34.44869694556186</v>
+        <v>22.46029169882469</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
-        <v>25.45426153165138</v>
+        <v>14.07219131137624</v>
       </c>
       <c r="J24">
-        <v>9.87677919957971</v>
+        <v>5.824199395269738</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>11.33334083265834</v>
+        <v>7.416502313123295</v>
       </c>
       <c r="M24">
-        <v>16.86723155671622</v>
+        <v>14.97431157118103</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>26.42440450057791</v>
+        <v>16.44219288858381</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.69094625406605</v>
+        <v>23.10389979740917</v>
       </c>
       <c r="C25">
-        <v>9.371138443177427</v>
+        <v>13.80599751795147</v>
       </c>
       <c r="D25">
-        <v>8.178325005762662</v>
+        <v>4.993050902404944</v>
       </c>
       <c r="E25">
-        <v>12.67405371194164</v>
+        <v>7.281785816655914</v>
       </c>
       <c r="F25">
-        <v>34.64421464938716</v>
+        <v>22.17184621203851</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
-        <v>25.70110424617196</v>
+        <v>14.60965831736765</v>
       </c>
       <c r="J25">
-        <v>9.908741582628435</v>
+        <v>5.917764606491427</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>11.3182433013801</v>
+        <v>7.169113629962111</v>
       </c>
       <c r="M25">
-        <v>16.61813367952541</v>
+        <v>13.85908032545626</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>26.60290943722659</v>
+        <v>16.41085092275252</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.16371161355755</v>
+        <v>22.55767696248083</v>
       </c>
       <c r="C2">
-        <v>12.88864764536901</v>
+        <v>20.4865307894363</v>
       </c>
       <c r="D2">
-        <v>4.905920462794191</v>
+        <v>4.162293638403597</v>
       </c>
       <c r="E2">
-        <v>7.398419421998898</v>
+        <v>12.37493426719173</v>
       </c>
       <c r="F2">
-        <v>22.04586551603759</v>
+        <v>33.89589353732774</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>2.221497575590068</v>
       </c>
       <c r="I2">
-        <v>15.05257367733782</v>
+        <v>3.245728900056812</v>
       </c>
       <c r="J2">
-        <v>5.989628945707953</v>
+        <v>4.251792669784106</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.96345177282306</v>
       </c>
       <c r="L2">
-        <v>6.989156007910395</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>12.9873424578132</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>16.4545830580435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>19.34424643398895</v>
+      </c>
+      <c r="P2">
+        <v>12.7586046553318</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.74387155810686</v>
+        <v>21.01346510877193</v>
       </c>
       <c r="C3">
-        <v>12.2281045047286</v>
+        <v>19.06141320004205</v>
       </c>
       <c r="D3">
-        <v>4.848798421427465</v>
+        <v>4.15745419930256</v>
       </c>
       <c r="E3">
-        <v>7.481268995532329</v>
+        <v>11.64005822901979</v>
       </c>
       <c r="F3">
-        <v>22.01036367549467</v>
+        <v>32.21234403328396</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>1.936947619911274</v>
       </c>
       <c r="I3">
-        <v>15.37917215267504</v>
+        <v>2.979755427129151</v>
       </c>
       <c r="J3">
-        <v>6.040282113707664</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.33004235087717</v>
       </c>
       <c r="L3">
-        <v>6.869054999403098</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>12.36719761902864</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.52191836370586</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>18.18403122581729</v>
+      </c>
+      <c r="P3">
+        <v>12.88878812436567</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.81978002789722</v>
+        <v>20.00668904781356</v>
       </c>
       <c r="C4">
-        <v>11.80393727932804</v>
+        <v>18.14071714120566</v>
       </c>
       <c r="D4">
-        <v>4.814728070167009</v>
+        <v>4.153119633528115</v>
       </c>
       <c r="E4">
-        <v>7.534045671654073</v>
+        <v>11.16881664153798</v>
       </c>
       <c r="F4">
-        <v>22.01174183993097</v>
+        <v>31.14573715325962</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>1.756914671892616</v>
       </c>
       <c r="I4">
-        <v>15.59190788492789</v>
+        <v>2.812435514905621</v>
       </c>
       <c r="J4">
-        <v>6.072375096537608</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>19.93521348981979</v>
       </c>
       <c r="L4">
-        <v>6.796400449267004</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>11.97292577737009</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.58053775954528</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>17.43563444010235</v>
+      </c>
+      <c r="P4">
+        <v>12.96893003936972</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.42997665841156</v>
+        <v>19.57274134019771</v>
       </c>
       <c r="C5">
-        <v>11.62652145500693</v>
+        <v>17.75882572813452</v>
       </c>
       <c r="D5">
-        <v>4.801104216499095</v>
+        <v>4.149513936395708</v>
       </c>
       <c r="E5">
-        <v>7.556036160881208</v>
+        <v>10.97241369587614</v>
       </c>
       <c r="F5">
-        <v>22.0179122595101</v>
+        <v>30.6851775625292</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>1.681826584873558</v>
       </c>
       <c r="I5">
-        <v>15.68155788303801</v>
+        <v>2.74343398206293</v>
       </c>
       <c r="J5">
-        <v>6.08570677962881</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.75931965953235</v>
       </c>
       <c r="L5">
-        <v>6.767093245489628</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>11.80904088409654</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.60857535659889</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>17.11983113814621</v>
+      </c>
+      <c r="P5">
+        <v>12.99906198182035</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.36444891872845</v>
+        <v>19.48900538061039</v>
       </c>
       <c r="C6">
-        <v>11.59678974035287</v>
+        <v>17.70069707510034</v>
       </c>
       <c r="D6">
-        <v>4.798857919851913</v>
+        <v>4.147066203527805</v>
       </c>
       <c r="E6">
-        <v>7.559716990230318</v>
+        <v>10.94034728060425</v>
       </c>
       <c r="F6">
-        <v>22.01926908724349</v>
+        <v>30.58614443352668</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>1.668850241450281</v>
       </c>
       <c r="I6">
-        <v>15.6966199053276</v>
+        <v>2.732388510332176</v>
       </c>
       <c r="J6">
-        <v>6.087935927058759</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.71334148977943</v>
       </c>
       <c r="L6">
-        <v>6.762245706502669</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>11.78163951114065</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.61347598232292</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>17.06458257596787</v>
+      </c>
+      <c r="P6">
+        <v>13.00091502733331</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.81457666600635</v>
+        <v>19.97216884916023</v>
       </c>
       <c r="C7">
-        <v>11.80156290383982</v>
+        <v>18.15153430754869</v>
       </c>
       <c r="D7">
-        <v>4.814543270780788</v>
+        <v>4.148090824510335</v>
       </c>
       <c r="E7">
-        <v>7.534340279729027</v>
+        <v>11.16845512396389</v>
       </c>
       <c r="F7">
-        <v>22.01180264049291</v>
+        <v>31.08022207475242</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>1.754760612367524</v>
       </c>
       <c r="I7">
-        <v>15.59310509352633</v>
+        <v>2.812371464163511</v>
       </c>
       <c r="J7">
-        <v>6.072553860332995</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.88767680322073</v>
       </c>
       <c r="L7">
-        <v>6.796003951899402</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>11.97072833100282</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.58089933708102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>17.42533306569789</v>
+      </c>
+      <c r="P7">
+        <v>12.96076023113005</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.68496014727597</v>
+        <v>22.00223945299983</v>
       </c>
       <c r="C8">
-        <v>12.66480998350998</v>
+        <v>20.02382812278463</v>
       </c>
       <c r="D8">
-        <v>4.886021486426951</v>
+        <v>4.154402342196276</v>
       </c>
       <c r="E8">
-        <v>7.426592718162002</v>
+        <v>12.12842004740208</v>
       </c>
       <c r="F8">
-        <v>22.02868451537306</v>
+        <v>33.24847359432432</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>2.122991090613144</v>
       </c>
       <c r="I8">
-        <v>15.16258176864759</v>
+        <v>3.155164442816347</v>
       </c>
       <c r="J8">
-        <v>6.006890872544171</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.68861651085485</v>
       </c>
       <c r="L8">
-        <v>6.947535281311066</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>12.77641670137953</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.47409721900271</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>18.94420415939757</v>
+      </c>
+      <c r="P8">
+        <v>12.79228012345518</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>23.94126501229419</v>
+        <v>25.56923958428843</v>
       </c>
       <c r="C9">
-        <v>14.2064209378203</v>
+        <v>23.31349892757529</v>
       </c>
       <c r="D9">
-        <v>5.03379116277858</v>
+        <v>4.164500792141665</v>
       </c>
       <c r="E9">
-        <v>7.230237981455158</v>
+        <v>13.85039783187868</v>
       </c>
       <c r="F9">
-        <v>22.25507825397615</v>
+        <v>37.32242366087422</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>2.806728193118167</v>
       </c>
       <c r="I9">
-        <v>14.42083786610824</v>
+        <v>3.797604145338358</v>
       </c>
       <c r="J9">
-        <v>5.88579839852249</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.28421640274285</v>
       </c>
       <c r="L9">
-        <v>7.252168864476652</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>14.24284760301452</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>16.41050328128875</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>21.64448041409474</v>
+      </c>
+      <c r="P9">
+        <v>12.47823151628268</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.08773634395317</v>
+        <v>27.86455776490219</v>
       </c>
       <c r="C10">
-        <v>15.24329072527384</v>
+        <v>25.44346673873292</v>
       </c>
       <c r="D10">
-        <v>5.146515779281213</v>
+        <v>4.14024426765101</v>
       </c>
       <c r="E10">
-        <v>7.094810885376597</v>
+        <v>14.58050401570918</v>
       </c>
       <c r="F10">
-        <v>22.55139042682834</v>
+        <v>39.86524679614492</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>3.25880783376583</v>
       </c>
       <c r="I10">
-        <v>13.9475195443362</v>
+        <v>4.243842187776271</v>
       </c>
       <c r="J10">
-        <v>5.801222299245893</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>23.23869117071021</v>
       </c>
       <c r="L10">
-        <v>7.479053683573884</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>15.24426570837459</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>16.46472147518934</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>23.13898465101332</v>
+      </c>
+      <c r="P10">
+        <v>12.20422167996125</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.01191220751925</v>
+        <v>28.46529078121074</v>
       </c>
       <c r="C11">
-        <v>15.69377434914172</v>
+        <v>25.67808816929323</v>
       </c>
       <c r="D11">
-        <v>5.198601201300581</v>
+        <v>3.959412747373073</v>
       </c>
       <c r="E11">
-        <v>7.035060410931568</v>
+        <v>11.54695842290432</v>
       </c>
       <c r="F11">
-        <v>22.71678620808812</v>
+        <v>38.81584627852295</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>3.81470148546955</v>
       </c>
       <c r="I11">
-        <v>13.75018518726411</v>
+        <v>4.359902044845365</v>
       </c>
       <c r="J11">
-        <v>5.76363369496231</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>22.22180554190113</v>
       </c>
       <c r="L11">
-        <v>7.582641743436853</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>15.68235872367226</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>16.51386159918328</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>21.1204539146739</v>
+      </c>
+      <c r="P11">
+        <v>11.76038874820687</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.35444845643308</v>
+        <v>28.54046330785893</v>
       </c>
       <c r="C12">
-        <v>15.86129440048962</v>
+        <v>25.42418725271996</v>
       </c>
       <c r="D12">
-        <v>5.218432518263236</v>
+        <v>3.861488542536085</v>
       </c>
       <c r="E12">
-        <v>7.01269661125538</v>
+        <v>9.789428778636694</v>
       </c>
       <c r="F12">
-        <v>22.7839950216668</v>
+        <v>37.45649768242781</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>4.795660431158908</v>
       </c>
       <c r="I12">
-        <v>13.67828435711961</v>
+        <v>4.371389355014279</v>
       </c>
       <c r="J12">
-        <v>5.749521556521605</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>21.21135756653645</v>
       </c>
       <c r="L12">
-        <v>7.621899290994487</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>15.84568508721508</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>16.53619526938743</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>19.09474030455457</v>
+      </c>
+      <c r="P12">
+        <v>11.50359831829719</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.2810061529266</v>
+        <v>28.18544717613336</v>
       </c>
       <c r="C13">
-        <v>15.82535263499615</v>
+        <v>24.78793035685655</v>
       </c>
       <c r="D13">
-        <v>5.21415682593689</v>
+        <v>3.816046722013952</v>
       </c>
       <c r="E13">
-        <v>7.017501456649387</v>
+        <v>9.364257821705229</v>
       </c>
       <c r="F13">
-        <v>22.76931415943453</v>
+        <v>35.65782768946227</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>5.935633524148949</v>
       </c>
       <c r="I13">
-        <v>13.69363967299507</v>
+        <v>4.303504525577392</v>
       </c>
       <c r="J13">
-        <v>5.752555529011564</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>20.06354695563067</v>
       </c>
       <c r="L13">
-        <v>7.613443446974394</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>15.81062491211812</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.53121639837795</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>16.87497494205361</v>
+      </c>
+      <c r="P13">
+        <v>11.36488848605747</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.0402412565834</v>
+        <v>27.73179290437222</v>
       </c>
       <c r="C14">
-        <v>15.70761789692409</v>
+        <v>24.16529235484372</v>
       </c>
       <c r="D14">
-        <v>5.200230622913468</v>
+        <v>3.813876365309358</v>
       </c>
       <c r="E14">
-        <v>7.033215294392317</v>
+        <v>9.971003912596387</v>
       </c>
       <c r="F14">
-        <v>22.72222282075917</v>
+        <v>34.16290928335314</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>6.79348601356879</v>
       </c>
       <c r="I14">
-        <v>13.74421175227397</v>
+        <v>4.221315705279462</v>
       </c>
       <c r="J14">
-        <v>5.762470271178088</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>19.1798781453314</v>
       </c>
       <c r="L14">
-        <v>7.585870990669662</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>15.69584747236621</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>16.51562317885151</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>15.20443267141734</v>
+      </c>
+      <c r="P14">
+        <v>11.32738886133948</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>26.89180092809692</v>
+        <v>27.51845629816635</v>
       </c>
       <c r="C15">
-        <v>15.6351019627132</v>
+        <v>23.93327998227516</v>
       </c>
       <c r="D15">
-        <v>5.191714209562055</v>
+        <v>3.818783798166122</v>
       </c>
       <c r="E15">
-        <v>7.042874513544121</v>
+        <v>10.19962099473504</v>
       </c>
       <c r="F15">
-        <v>22.69397910433317</v>
+        <v>33.6826906198847</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>6.988463600360249</v>
       </c>
       <c r="I15">
-        <v>13.7755642123945</v>
+        <v>4.183836209862587</v>
       </c>
       <c r="J15">
-        <v>5.768559038080901</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.92096865515274</v>
       </c>
       <c r="L15">
-        <v>7.568985444179109</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>15.62520679667042</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>16.50656306705336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>14.750255534283</v>
+      </c>
+      <c r="P15">
+        <v>11.33606534190733</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.02629491746248</v>
+        <v>26.61184839713287</v>
       </c>
       <c r="C16">
-        <v>15.21342205953309</v>
+        <v>23.14246763233899</v>
       </c>
       <c r="D16">
-        <v>5.14312738509912</v>
+        <v>3.835821203181115</v>
       </c>
       <c r="E16">
-        <v>7.098752684361634</v>
+        <v>9.850437048539842</v>
       </c>
       <c r="F16">
-        <v>22.54121258580693</v>
+        <v>32.81926721163654</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>6.698328405190866</v>
       </c>
       <c r="I16">
-        <v>13.96079742383387</v>
+        <v>4.009174158374098</v>
       </c>
       <c r="J16">
-        <v>5.803696158906018</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.67544514048234</v>
       </c>
       <c r="L16">
-        <v>7.472289520930319</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>15.2152785473093</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>16.46202025639043</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>14.41433898385853</v>
+      </c>
+      <c r="P16">
+        <v>11.47709210780271</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.48200955830969</v>
+        <v>26.15338974951487</v>
       </c>
       <c r="C17">
-        <v>14.94928848266267</v>
+        <v>22.87321673291179</v>
       </c>
       <c r="D17">
-        <v>5.11352147014585</v>
+        <v>3.846057330453958</v>
       </c>
       <c r="E17">
-        <v>7.133504318207564</v>
+        <v>9.084518063578804</v>
       </c>
       <c r="F17">
-        <v>22.45546270811063</v>
+        <v>32.9826025203395</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>5.965799954085927</v>
       </c>
       <c r="I17">
-        <v>14.07919827941972</v>
+        <v>3.91812487640318</v>
       </c>
       <c r="J17">
-        <v>5.82547462509978</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.96781400408321</v>
       </c>
       <c r="L17">
-        <v>7.413049185152603</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>14.95928198560771</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>16.44111125568669</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>15.08385267261709</v>
+      </c>
+      <c r="P17">
+        <v>11.60104663173272</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.16402629852984</v>
+        <v>26.06295825556356</v>
       </c>
       <c r="C18">
-        <v>14.79537144411132</v>
+        <v>23.02575167508537</v>
       </c>
       <c r="D18">
-        <v>5.096569307396126</v>
+        <v>3.875207433664468</v>
       </c>
       <c r="E18">
-        <v>7.153667503877887</v>
+        <v>8.715542783745569</v>
       </c>
       <c r="F18">
-        <v>22.40901227834838</v>
+        <v>34.09242475982035</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>4.830115553640849</v>
       </c>
       <c r="I18">
-        <v>14.14897558464988</v>
+        <v>3.891124923803067</v>
       </c>
       <c r="J18">
-        <v>5.838084713241829</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>19.78785592953743</v>
       </c>
       <c r="L18">
-        <v>7.379012481954815</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>14.81039884653148</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.43137666144382</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>16.70703610553955</v>
+      </c>
+      <c r="P18">
+        <v>11.75352998954515</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.05551420951604</v>
+        <v>26.23661920673738</v>
       </c>
       <c r="C19">
-        <v>14.74291606051925</v>
+        <v>23.5309581139372</v>
       </c>
       <c r="D19">
-        <v>5.090842973111124</v>
+        <v>3.948179340498388</v>
       </c>
       <c r="E19">
-        <v>7.160524598498143</v>
+        <v>10.01114895855838</v>
       </c>
       <c r="F19">
-        <v>22.39377241124454</v>
+        <v>35.76731712011425</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>3.667635557198411</v>
       </c>
       <c r="I19">
-        <v>14.17288207204367</v>
+        <v>3.926304434611811</v>
       </c>
       <c r="J19">
-        <v>5.842368808868824</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>20.89364551653943</v>
       </c>
       <c r="L19">
-        <v>7.367495291259813</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>14.75970987003746</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>16.42846796162424</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>18.94663286891429</v>
+      </c>
+      <c r="P19">
+        <v>11.94736092280917</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.54045873448167</v>
+        <v>27.20832673373758</v>
       </c>
       <c r="C20">
-        <v>14.97761255078689</v>
+        <v>24.93049951161118</v>
       </c>
       <c r="D20">
-        <v>5.116665226972797</v>
+        <v>4.131607474439168</v>
       </c>
       <c r="E20">
-        <v>7.129786871607021</v>
+        <v>14.37477550531783</v>
       </c>
       <c r="F20">
-        <v>22.46429251111243</v>
+        <v>39.0467332939109</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>3.135860297123636</v>
       </c>
       <c r="I20">
-        <v>14.06641917989412</v>
+        <v>4.12869358620165</v>
       </c>
       <c r="J20">
-        <v>5.823147647386792</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>22.85920205937297</v>
       </c>
       <c r="L20">
-        <v>7.419351788312123</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>14.9867035450086</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>16.44309836732297</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>22.72647291711998</v>
+      </c>
+      <c r="P20">
+        <v>12.24921876480655</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.11116066445465</v>
+        <v>28.96900200746591</v>
       </c>
       <c r="C21">
-        <v>15.74228282600395</v>
+        <v>26.62102757049852</v>
       </c>
       <c r="D21">
-        <v>5.204318226948453</v>
+        <v>4.148077508069959</v>
       </c>
       <c r="E21">
-        <v>7.028592673513923</v>
+        <v>15.59850443044089</v>
       </c>
       <c r="F21">
-        <v>22.73592912476041</v>
+        <v>41.35794448653528</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>3.521831870204068</v>
       </c>
       <c r="I21">
-        <v>13.72927875938405</v>
+        <v>4.482429549908789</v>
       </c>
       <c r="J21">
-        <v>5.75955480916894</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>23.85852081859985</v>
       </c>
       <c r="L21">
-        <v>7.593969024041192</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>15.72963053248026</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>16.52010056206793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>24.30496527408438</v>
+      </c>
+      <c r="P21">
+        <v>12.1054268412397</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.09444472245065</v>
+        <v>30.07718635459872</v>
       </c>
       <c r="C22">
-        <v>16.22415260444537</v>
+        <v>27.63356103362982</v>
       </c>
       <c r="D22">
-        <v>5.262228807616587</v>
+        <v>4.152379186066836</v>
       </c>
       <c r="E22">
-        <v>6.963983833662517</v>
+        <v>16.15096413957607</v>
       </c>
       <c r="F22">
-        <v>22.94021083161251</v>
+        <v>42.76519317734804</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>3.757448372440213</v>
       </c>
       <c r="I22">
-        <v>13.52554082705466</v>
+        <v>4.706250768705511</v>
       </c>
       <c r="J22">
-        <v>5.718700700474747</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>24.46978120934483</v>
       </c>
       <c r="L22">
-        <v>7.708262751341461</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>16.20017986976926</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>16.59223234270814</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>25.15032963702705</v>
+      </c>
+      <c r="P22">
+        <v>12.00210020867719</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>27.57357660319484</v>
+        <v>29.51467731268827</v>
       </c>
       <c r="C23">
-        <v>15.96861023679131</v>
+        <v>27.0832949532278</v>
       </c>
       <c r="D23">
-        <v>5.231266320675002</v>
+        <v>4.15578757170642</v>
       </c>
       <c r="E23">
-        <v>6.998328516098804</v>
+        <v>15.85574320548974</v>
       </c>
       <c r="F23">
-        <v>22.82867898416379</v>
+        <v>42.07116360545976</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>3.63317687735271</v>
       </c>
       <c r="I23">
-        <v>13.63267293110022</v>
+        <v>4.586475264962903</v>
       </c>
       <c r="J23">
-        <v>5.740442457404908</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>24.18927152058837</v>
       </c>
       <c r="L23">
-        <v>7.647253546484459</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>15.95042665260298</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>16.55167218874308</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>24.70751833372794</v>
+      </c>
+      <c r="P23">
+        <v>12.06693628857665</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.51404964902073</v>
+        <v>27.25230066293844</v>
       </c>
       <c r="C24">
-        <v>14.96481366407262</v>
+        <v>24.94791158667411</v>
       </c>
       <c r="D24">
-        <v>5.115243719979533</v>
+        <v>4.15725143936464</v>
       </c>
       <c r="E24">
-        <v>7.131466955730899</v>
+        <v>14.7096478739519</v>
       </c>
       <c r="F24">
-        <v>22.46029169882469</v>
+        <v>39.29182690131713</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>3.154665833359145</v>
       </c>
       <c r="I24">
-        <v>14.07219131137624</v>
+        <v>4.129594703029638</v>
       </c>
       <c r="J24">
-        <v>5.824199395269738</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>23.04281520590705</v>
       </c>
       <c r="L24">
-        <v>7.416502313123295</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>14.97431157118103</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>16.44219288858381</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>22.9584524621938</v>
+      </c>
+      <c r="P24">
+        <v>12.29741240329895</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.10389979740917</v>
+        <v>24.60938489813274</v>
       </c>
       <c r="C25">
-        <v>13.80599751795147</v>
+        <v>22.48442231051424</v>
       </c>
       <c r="D25">
-        <v>4.993050902404944</v>
+        <v>4.154268744511032</v>
       </c>
       <c r="E25">
-        <v>7.281785816655914</v>
+        <v>13.40432072503748</v>
       </c>
       <c r="F25">
-        <v>22.17184621203851</v>
+        <v>36.1583383309732</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>2.623855671025151</v>
       </c>
       <c r="I25">
-        <v>14.60965831736765</v>
+        <v>3.627433044495886</v>
       </c>
       <c r="J25">
-        <v>5.917764606491427</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.78384106144804</v>
       </c>
       <c r="L25">
-        <v>7.169113629962111</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>13.85908032545626</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>16.41085092275252</v>
+        <v>20.93560082056372</v>
+      </c>
+      <c r="P25">
+        <v>12.54810277491167</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_15/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>22.55767696248083</v>
+        <v>21.39748616027581</v>
       </c>
       <c r="C2">
-        <v>20.4865307894363</v>
+        <v>21.15005514545225</v>
       </c>
       <c r="D2">
-        <v>4.162293638403597</v>
+        <v>3.917480053529927</v>
       </c>
       <c r="E2">
-        <v>12.37493426719173</v>
+        <v>12.59010626397889</v>
       </c>
       <c r="F2">
-        <v>33.89589353732774</v>
+        <v>31.24810811854728</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>2.221497575590068</v>
+        <v>2.218257089847149</v>
       </c>
       <c r="I2">
-        <v>3.245728900056812</v>
+        <v>3.254029786026456</v>
       </c>
       <c r="J2">
-        <v>4.251792669784106</v>
+        <v>5.716774528916059</v>
       </c>
       <c r="K2">
-        <v>20.96345177282306</v>
+        <v>18.82855039279169</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>16.03472296275768</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>12.2042204754988</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.34424643398895</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>12.7586046553318</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>19.09903342661417</v>
+      </c>
+      <c r="R2">
+        <v>12.34310309166277</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>21.01346510877193</v>
+        <v>19.98847766571504</v>
       </c>
       <c r="C3">
-        <v>19.06141320004205</v>
+        <v>19.65788244369885</v>
       </c>
       <c r="D3">
-        <v>4.15745419930256</v>
+        <v>3.922439797276093</v>
       </c>
       <c r="E3">
-        <v>11.64005822901979</v>
+        <v>11.87319879072034</v>
       </c>
       <c r="F3">
-        <v>32.21234403328396</v>
+        <v>29.82850188986518</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1.936947619911274</v>
+        <v>1.950845830569263</v>
       </c>
       <c r="I3">
-        <v>2.979755427129151</v>
+        <v>3.023815156830985</v>
       </c>
       <c r="J3">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K3">
-        <v>20.33004235087717</v>
+        <v>18.41307226708942</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15.91052072412245</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>11.64762412562198</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.18403122581729</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>12.88878812436567</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>17.97002325089884</v>
+      </c>
+      <c r="R3">
+        <v>12.50131295803038</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.00668904781356</v>
+        <v>19.06888472372808</v>
       </c>
       <c r="C4">
-        <v>18.14071714120566</v>
+        <v>18.69292365753203</v>
       </c>
       <c r="D4">
-        <v>4.153119633528115</v>
+        <v>3.924256196666799</v>
       </c>
       <c r="E4">
-        <v>11.16881664153798</v>
+        <v>11.41322583259842</v>
       </c>
       <c r="F4">
-        <v>31.14573715325962</v>
+        <v>28.93019592656897</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>1.756914671892616</v>
+        <v>1.78144569695826</v>
       </c>
       <c r="I4">
-        <v>2.812435514905621</v>
+        <v>2.87893815708069</v>
       </c>
       <c r="J4">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K4">
-        <v>19.93521348981979</v>
+        <v>18.1546095441183</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>15.82648637974102</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>11.31838573240765</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>17.43563444010235</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>12.96893003936972</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>17.2414322640426</v>
+      </c>
+      <c r="R4">
+        <v>12.59875458117054</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>19.57274134019771</v>
+        <v>18.67214980362916</v>
       </c>
       <c r="C5">
-        <v>17.75882572813452</v>
+        <v>18.29194202946791</v>
       </c>
       <c r="D5">
-        <v>4.149513936395708</v>
+        <v>3.923845581469004</v>
       </c>
       <c r="E5">
-        <v>10.97241369587614</v>
+        <v>11.2214817399176</v>
       </c>
       <c r="F5">
-        <v>30.6851775625292</v>
+        <v>28.54099723774885</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1.681826584873558</v>
+        <v>1.710756770100739</v>
       </c>
       <c r="I5">
-        <v>2.74343398206293</v>
+        <v>2.819497236640117</v>
       </c>
       <c r="J5">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K5">
-        <v>19.75931965953235</v>
+        <v>18.03625797394264</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>15.7806656237386</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>11.17885483014203</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>17.11983113814621</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>12.99906198182035</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>16.93399660338603</v>
+      </c>
+      <c r="R5">
+        <v>12.63678409558812</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>19.48900538061039</v>
+        <v>18.59540882573754</v>
       </c>
       <c r="C6">
-        <v>17.70069707510034</v>
+        <v>18.23025274587886</v>
       </c>
       <c r="D6">
-        <v>4.147066203527805</v>
+        <v>3.922732219966624</v>
       </c>
       <c r="E6">
-        <v>10.94034728060425</v>
+        <v>11.19016770565571</v>
       </c>
       <c r="F6">
-        <v>30.58614443352668</v>
+        <v>28.45548817529537</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>1.668850241450281</v>
+        <v>1.698552930779977</v>
       </c>
       <c r="I6">
-        <v>2.732388510332176</v>
+        <v>2.810430431833491</v>
       </c>
       <c r="J6">
-        <v>4.251792669778333</v>
+        <v>5.716774528915655</v>
       </c>
       <c r="K6">
-        <v>19.71334148977943</v>
+        <v>18.00161281663828</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>15.76121831516263</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>11.14483659873701</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>17.06458257596787</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>13.00091502733331</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>16.88030278920511</v>
+      </c>
+      <c r="R6">
+        <v>12.64094598038981</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>19.97216884916023</v>
+        <v>19.0368633894867</v>
       </c>
       <c r="C7">
-        <v>18.15153430754869</v>
+        <v>18.70256890657346</v>
       </c>
       <c r="D7">
-        <v>4.148090824510335</v>
+        <v>3.921499155169265</v>
       </c>
       <c r="E7">
-        <v>11.16845512396389</v>
+        <v>11.41286614743829</v>
       </c>
       <c r="F7">
-        <v>31.08022207475242</v>
+        <v>28.86989836609682</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1.754760612367524</v>
+        <v>1.779460568953736</v>
       </c>
       <c r="I7">
-        <v>2.812371464163511</v>
+        <v>2.879997231742005</v>
       </c>
       <c r="J7">
-        <v>4.251792669778333</v>
+        <v>5.712988455786178</v>
       </c>
       <c r="K7">
-        <v>19.88767680322073</v>
+        <v>18.11256817733797</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>15.79448707048677</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>11.28609490934059</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>17.42533306569789</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>12.96076023113005</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>17.23165958638464</v>
+      </c>
+      <c r="R7">
+        <v>12.59345989935216</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>22.00223945299983</v>
+        <v>20.89027052060919</v>
       </c>
       <c r="C8">
-        <v>20.02382812278463</v>
+        <v>20.66375819301085</v>
       </c>
       <c r="D8">
-        <v>4.154402342196276</v>
+        <v>3.916052001763341</v>
       </c>
       <c r="E8">
-        <v>12.12842004740208</v>
+        <v>12.34973678516536</v>
       </c>
       <c r="F8">
-        <v>33.24847359432432</v>
+        <v>30.69564356206671</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2.122991090613144</v>
+        <v>2.125791188545345</v>
       </c>
       <c r="I8">
-        <v>3.155164442816347</v>
+        <v>3.176954797516474</v>
       </c>
       <c r="J8">
-        <v>4.251792669778333</v>
+        <v>5.711640832521052</v>
       </c>
       <c r="K8">
-        <v>20.68861651085485</v>
+        <v>18.63422487924921</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>15.95451864410868</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>11.9698717664943</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>18.94420415939757</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>12.79228012345518</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>18.71014706428046</v>
+      </c>
+      <c r="R8">
+        <v>12.39031539015022</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>25.56923958428843</v>
+        <v>24.13963206508946</v>
       </c>
       <c r="C9">
-        <v>23.31349892757529</v>
+        <v>24.10438004400504</v>
       </c>
       <c r="D9">
-        <v>4.164500792141665</v>
+        <v>3.899831848602746</v>
       </c>
       <c r="E9">
-        <v>13.85039783187868</v>
+        <v>14.02701163808207</v>
       </c>
       <c r="F9">
-        <v>37.32242366087422</v>
+        <v>34.14322770225812</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>2.806728193118167</v>
+        <v>2.766943314003783</v>
       </c>
       <c r="I9">
-        <v>3.797604145338358</v>
+        <v>3.731308077930349</v>
       </c>
       <c r="J9">
-        <v>4.251792669778333</v>
+        <v>5.712301332179654</v>
       </c>
       <c r="K9">
-        <v>22.28421640274285</v>
+        <v>19.69828646448061</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>16.25938638100929</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>13.44230910596894</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>21.64448041409474</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>12.47823151628268</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>21.33525996320767</v>
+      </c>
+      <c r="R9">
+        <v>12.00303577786856</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.86455776490219</v>
+        <v>26.23432385176187</v>
       </c>
       <c r="C10">
-        <v>25.44346673873292</v>
+        <v>26.32201221187452</v>
       </c>
       <c r="D10">
-        <v>4.14024426765101</v>
+        <v>3.872416558741638</v>
       </c>
       <c r="E10">
-        <v>14.58050401570918</v>
+        <v>14.71513434757678</v>
       </c>
       <c r="F10">
-        <v>39.86524679614492</v>
+        <v>36.29257839232395</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3.25880783376583</v>
+        <v>3.188819731913804</v>
       </c>
       <c r="I10">
-        <v>4.243842187776271</v>
+        <v>4.116518487669028</v>
       </c>
       <c r="J10">
-        <v>4.251792669778333</v>
+        <v>5.744419754315621</v>
       </c>
       <c r="K10">
-        <v>23.23869117071021</v>
+        <v>20.31223452968238</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>16.34191769989982</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>14.42529926616305</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>23.13898465101332</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>12.20422167996125</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>22.7805578648239</v>
+      </c>
+      <c r="R10">
+        <v>11.69484072068619</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.46529078121074</v>
+        <v>26.86891796406849</v>
       </c>
       <c r="C11">
-        <v>25.67808816929323</v>
+        <v>26.53058521691799</v>
       </c>
       <c r="D11">
-        <v>3.959412747373073</v>
+        <v>3.819965255373345</v>
       </c>
       <c r="E11">
-        <v>11.54695842290432</v>
+        <v>11.56648846148071</v>
       </c>
       <c r="F11">
-        <v>38.81584627852295</v>
+        <v>35.34116288564614</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3.81470148546955</v>
+        <v>3.751854427151068</v>
       </c>
       <c r="I11">
-        <v>4.359902044845365</v>
+        <v>4.221133445663887</v>
       </c>
       <c r="J11">
-        <v>4.251792669778333</v>
+        <v>5.942780798806009</v>
       </c>
       <c r="K11">
-        <v>22.22180554190113</v>
+        <v>19.40078615649313</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>15.53542022883876</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>13.92164191854524</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.1204539146739</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>11.76038874820687</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>20.77160120899009</v>
+      </c>
+      <c r="R11">
+        <v>11.40492574042528</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.54046330785893</v>
+        <v>27.01188811994936</v>
       </c>
       <c r="C12">
-        <v>25.42418725271996</v>
+        <v>26.23777333242792</v>
       </c>
       <c r="D12">
-        <v>3.861488542536085</v>
+        <v>3.824124588242982</v>
       </c>
       <c r="E12">
-        <v>9.789428778636694</v>
+        <v>9.680359210536825</v>
       </c>
       <c r="F12">
-        <v>37.45649768242781</v>
+        <v>34.14179605681159</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.795660431158908</v>
+        <v>4.748134978952455</v>
       </c>
       <c r="I12">
-        <v>4.371389355014279</v>
+        <v>4.233158231456784</v>
       </c>
       <c r="J12">
-        <v>4.251792669778333</v>
+        <v>6.092466875987244</v>
       </c>
       <c r="K12">
-        <v>21.21135756653645</v>
+        <v>18.54711441056642</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>14.88099871787713</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>13.31891331540793</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.09474030455457</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>11.50359831829719</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>18.76387658575536</v>
+      </c>
+      <c r="R12">
+        <v>11.27690182095416</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.18544717613336</v>
+        <v>26.75957972546298</v>
       </c>
       <c r="C13">
-        <v>24.78793035685655</v>
+        <v>25.54774277327555</v>
       </c>
       <c r="D13">
-        <v>3.816046722013952</v>
+        <v>3.86458417435454</v>
       </c>
       <c r="E13">
-        <v>9.364257821705229</v>
+        <v>9.143484759708013</v>
       </c>
       <c r="F13">
-        <v>35.65782768946227</v>
+        <v>32.57097941095971</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5.935633524148949</v>
+        <v>5.902159164903955</v>
       </c>
       <c r="I13">
-        <v>4.303504525577392</v>
+        <v>4.176641111615131</v>
       </c>
       <c r="J13">
-        <v>4.251792669778333</v>
+        <v>6.056017976358584</v>
       </c>
       <c r="K13">
-        <v>20.06354695563067</v>
+        <v>17.6162809034978</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>14.251020616249</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>12.54465047733138</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>16.87497494205361</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>11.36488848605747</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>16.57034584471019</v>
+      </c>
+      <c r="R13">
+        <v>11.25424211160439</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.73179290437222</v>
+        <v>26.39531002449388</v>
       </c>
       <c r="C14">
-        <v>24.16529235484372</v>
+        <v>24.8794494762908</v>
       </c>
       <c r="D14">
-        <v>3.813876365309358</v>
+        <v>3.912215026898347</v>
       </c>
       <c r="E14">
-        <v>9.971003912596387</v>
+        <v>9.710172264735615</v>
       </c>
       <c r="F14">
-        <v>34.16290928335314</v>
+        <v>31.27022180956043</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>6.79348601356879</v>
+        <v>6.768137202218261</v>
       </c>
       <c r="I14">
-        <v>4.221315705279462</v>
+        <v>4.107446885409171</v>
       </c>
       <c r="J14">
-        <v>4.251792669778333</v>
+        <v>5.953276842055249</v>
       </c>
       <c r="K14">
-        <v>19.1798781453314</v>
+        <v>16.91562755053966</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>13.80993079546915</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>11.91162839459894</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.20443267141734</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>11.32738886133948</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>14.92214920874033</v>
+      </c>
+      <c r="R14">
+        <v>11.2890646713161</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.51845629816635</v>
+        <v>26.21216992193511</v>
       </c>
       <c r="C15">
-        <v>23.93327998227516</v>
+        <v>24.63257322913597</v>
       </c>
       <c r="D15">
-        <v>3.818783798166122</v>
+        <v>3.92677180023922</v>
       </c>
       <c r="E15">
-        <v>10.19962099473504</v>
+        <v>9.938038694930516</v>
       </c>
       <c r="F15">
-        <v>33.6826906198847</v>
+        <v>30.85380616101124</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>6.988463600360249</v>
+        <v>6.965321083943173</v>
       </c>
       <c r="I15">
-        <v>4.183836209862587</v>
+        <v>4.076020074817679</v>
       </c>
       <c r="J15">
-        <v>4.251792669778333</v>
+        <v>5.901744702168163</v>
       </c>
       <c r="K15">
-        <v>18.92096865515274</v>
+        <v>16.71600669701</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>13.69655856230099</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>11.71101174204698</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>14.750255534283</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>11.33606534190733</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>14.47531557182225</v>
+      </c>
+      <c r="R15">
+        <v>11.31350294005961</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.61184839713287</v>
+        <v>25.37699537362988</v>
       </c>
       <c r="C16">
-        <v>23.14246763233899</v>
+        <v>23.81087178702802</v>
       </c>
       <c r="D16">
-        <v>3.835821203181115</v>
+        <v>3.921386494488902</v>
       </c>
       <c r="E16">
-        <v>9.850437048539842</v>
+        <v>9.630092426287572</v>
       </c>
       <c r="F16">
-        <v>32.81926721163654</v>
+        <v>30.12717723389652</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>6.698328405190866</v>
+        <v>6.680135065258537</v>
       </c>
       <c r="I16">
-        <v>4.009174158374098</v>
+        <v>3.925536198072686</v>
       </c>
       <c r="J16">
-        <v>4.251792669778333</v>
+        <v>5.738831790925769</v>
       </c>
       <c r="K16">
-        <v>18.67544514048234</v>
+        <v>16.58667550850457</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>13.7352352982847</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>11.39740744903894</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>14.41433898385853</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>11.47709210780271</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>14.15544054680177</v>
+      </c>
+      <c r="R16">
+        <v>11.43517643419475</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.15338974951487</v>
+        <v>24.92429327646627</v>
       </c>
       <c r="C17">
-        <v>22.87321673291179</v>
+        <v>23.54327530863553</v>
       </c>
       <c r="D17">
-        <v>3.846057330453958</v>
+        <v>3.890570684960448</v>
       </c>
       <c r="E17">
-        <v>9.084518063578804</v>
+        <v>8.915263332312531</v>
       </c>
       <c r="F17">
-        <v>32.9826025203395</v>
+        <v>30.28856363622904</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5.965799954085927</v>
+        <v>5.948201277424644</v>
       </c>
       <c r="I17">
-        <v>3.91812487640318</v>
+        <v>3.846337232575719</v>
       </c>
       <c r="J17">
-        <v>4.251792669778333</v>
+        <v>5.713305037326998</v>
       </c>
       <c r="K17">
-        <v>18.96781400408321</v>
+        <v>16.86731427762234</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>14.00702379815296</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>11.5027738700362</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.08385267261709</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>11.60104663173272</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>14.82521460341663</v>
+      </c>
+      <c r="R17">
+        <v>11.50971307709391</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>26.06295825556356</v>
+        <v>24.7813299714729</v>
       </c>
       <c r="C18">
-        <v>23.02575167508537</v>
+        <v>23.7271492021944</v>
       </c>
       <c r="D18">
-        <v>3.875207433664468</v>
+        <v>3.851129855377144</v>
       </c>
       <c r="E18">
-        <v>8.715542783745569</v>
+        <v>8.639762890180235</v>
       </c>
       <c r="F18">
-        <v>34.09242475982035</v>
+        <v>31.27229691880413</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.830115553640849</v>
+        <v>4.808299823285194</v>
       </c>
       <c r="I18">
-        <v>3.891124923803067</v>
+        <v>3.820300913184395</v>
       </c>
       <c r="J18">
-        <v>4.251792669778333</v>
+        <v>5.711150574177133</v>
       </c>
       <c r="K18">
-        <v>19.78785592953743</v>
+        <v>17.56109496195653</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>14.53879100742263</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>11.99683100671194</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>16.70703610553955</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>11.75352998954515</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>16.4348710717391</v>
+      </c>
+      <c r="R18">
+        <v>11.57461759295994</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>26.23661920673738</v>
+        <v>24.86298710203619</v>
       </c>
       <c r="C19">
-        <v>23.5309581139372</v>
+        <v>24.28321733579741</v>
       </c>
       <c r="D19">
-        <v>3.948179340498388</v>
+        <v>3.835741674716467</v>
       </c>
       <c r="E19">
-        <v>10.01114895855838</v>
+        <v>10.05438867137968</v>
       </c>
       <c r="F19">
-        <v>35.76731712011425</v>
+        <v>32.7390106617772</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>3.667635557198411</v>
+        <v>3.634403851773976</v>
       </c>
       <c r="I19">
-        <v>3.926304434611811</v>
+        <v>3.849238725184937</v>
       </c>
       <c r="J19">
-        <v>4.251792669778333</v>
+        <v>5.711490394033151</v>
       </c>
       <c r="K19">
-        <v>20.89364551653943</v>
+        <v>18.46822825029581</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>15.19764362523029</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>12.70577369172489</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.94663286891429</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>11.94736092280917</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>18.65165255877023</v>
+      </c>
+      <c r="R19">
+        <v>11.65454100138522</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>27.20832673373758</v>
+        <v>25.63534250514767</v>
       </c>
       <c r="C20">
-        <v>24.93049951161118</v>
+        <v>25.7844978560531</v>
       </c>
       <c r="D20">
-        <v>4.131607474439168</v>
+        <v>3.87320555157238</v>
       </c>
       <c r="E20">
-        <v>14.37477550531783</v>
+        <v>14.52074420526279</v>
       </c>
       <c r="F20">
-        <v>39.0467332939109</v>
+        <v>35.58738025277714</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>3.135860297123636</v>
+        <v>3.074234180769138</v>
       </c>
       <c r="I20">
-        <v>4.12869358620165</v>
+        <v>4.020873219407971</v>
       </c>
       <c r="J20">
-        <v>4.251792669778333</v>
+        <v>5.714445660903893</v>
       </c>
       <c r="K20">
-        <v>22.85920205937297</v>
+        <v>20.0342194082865</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>16.23780602722272</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>14.07294565967907</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>22.72647291711998</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>12.24921876480655</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>22.38213593738678</v>
+      </c>
+      <c r="R20">
+        <v>11.75988203356746</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.96900200746591</v>
+        <v>27.22421113622699</v>
       </c>
       <c r="C21">
-        <v>26.62102757049852</v>
+        <v>27.5490748393156</v>
       </c>
       <c r="D21">
-        <v>4.148077508069959</v>
+        <v>3.863813913432963</v>
       </c>
       <c r="E21">
-        <v>15.59850443044089</v>
+        <v>15.72324003166459</v>
       </c>
       <c r="F21">
-        <v>41.35794448653528</v>
+        <v>37.55659315402588</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>3.521831870204068</v>
+        <v>3.435020296217675</v>
       </c>
       <c r="I21">
-        <v>4.482429549908789</v>
+        <v>4.324573453306332</v>
       </c>
       <c r="J21">
-        <v>4.251792669778333</v>
+        <v>6.072890156015649</v>
       </c>
       <c r="K21">
-        <v>23.85852081859985</v>
+        <v>20.73059020936939</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>16.45745347068225</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>15.01178517248326</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>24.30496527408438</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>12.1054268412397</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>23.9175454238136</v>
+      </c>
+      <c r="R21">
+        <v>11.55833517336486</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>30.07718635459872</v>
+        <v>28.22817852767069</v>
       </c>
       <c r="C22">
-        <v>27.63356103362982</v>
+        <v>28.60398102291868</v>
       </c>
       <c r="D22">
-        <v>4.152379186066836</v>
+        <v>3.854985292643891</v>
       </c>
       <c r="E22">
-        <v>16.15096413957607</v>
+        <v>16.25706056384826</v>
       </c>
       <c r="F22">
-        <v>42.76519317734804</v>
+        <v>38.75842829783571</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>3.757448372440213</v>
+        <v>3.654370682581224</v>
       </c>
       <c r="I22">
-        <v>4.706250768705511</v>
+        <v>4.51517338621872</v>
       </c>
       <c r="J22">
-        <v>4.251792669778333</v>
+        <v>6.613666634130162</v>
       </c>
       <c r="K22">
-        <v>24.46978120934483</v>
+        <v>21.1586907997486</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>16.57771169736612</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>15.60458390587667</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>25.15032963702705</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>12.00210020867719</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>24.73630532217873</v>
+      </c>
+      <c r="R22">
+        <v>11.42166393277852</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>29.51467731268827</v>
+        <v>27.71926283338604</v>
       </c>
       <c r="C23">
-        <v>27.0832949532278</v>
+        <v>28.03215334180295</v>
       </c>
       <c r="D23">
-        <v>4.15578757170642</v>
+        <v>3.862225266017529</v>
       </c>
       <c r="E23">
-        <v>15.85574320548974</v>
+        <v>15.97173976643175</v>
       </c>
       <c r="F23">
-        <v>42.07116360545976</v>
+        <v>38.1696401531047</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>3.63317687735271</v>
+        <v>3.538650460220103</v>
       </c>
       <c r="I23">
-        <v>4.586475264962903</v>
+        <v>4.411809171216005</v>
       </c>
       <c r="J23">
-        <v>4.251792669778333</v>
+        <v>6.216599296839348</v>
       </c>
       <c r="K23">
-        <v>24.18927152058837</v>
+        <v>20.97131753720143</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>16.54284786492124</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>15.32087974249888</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>24.70751833372794</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>12.06693628857665</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>24.30726353271781</v>
+      </c>
+      <c r="R23">
+        <v>11.50027681743253</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>27.25230066293844</v>
+        <v>25.66806936202384</v>
       </c>
       <c r="C24">
-        <v>24.94791158667411</v>
+        <v>25.80777897028949</v>
       </c>
       <c r="D24">
-        <v>4.15725143936464</v>
+        <v>3.883289521295491</v>
       </c>
       <c r="E24">
-        <v>14.7096478739519</v>
+        <v>14.86178409271763</v>
       </c>
       <c r="F24">
-        <v>39.29182690131713</v>
+        <v>35.80710229972471</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>3.154665833359145</v>
+        <v>3.092353179946865</v>
       </c>
       <c r="I24">
-        <v>4.129594703029638</v>
+        <v>4.019064267845643</v>
       </c>
       <c r="J24">
-        <v>4.251792669778333</v>
+        <v>5.713894566704329</v>
       </c>
       <c r="K24">
-        <v>23.04281520590705</v>
+        <v>20.19252649258177</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>16.35570050192609</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>14.19294693352661</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>22.9584524621938</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>12.29741240329895</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>22.61132303484695</v>
+      </c>
+      <c r="R24">
+        <v>11.78820962778587</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24.60938489813274</v>
+        <v>23.265497996777</v>
       </c>
       <c r="C25">
-        <v>22.48442231051424</v>
+        <v>23.23579926010322</v>
       </c>
       <c r="D25">
-        <v>4.154268744511032</v>
+        <v>3.901132814708203</v>
       </c>
       <c r="E25">
-        <v>13.40432072503748</v>
+        <v>13.59321233611981</v>
       </c>
       <c r="F25">
-        <v>36.1583383309732</v>
+        <v>33.14932192234603</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>2.623855671025151</v>
+        <v>2.595791335548071</v>
       </c>
       <c r="I25">
-        <v>3.627433044495886</v>
+        <v>3.586550775322188</v>
       </c>
       <c r="J25">
-        <v>4.251792669778333</v>
+        <v>5.711175322947495</v>
       </c>
       <c r="K25">
-        <v>21.78384106144804</v>
+        <v>19.34613635931469</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>16.13400812363862</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>12.98521973645579</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.93560082056372</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>12.54810277491167</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>20.64694912643191</v>
+      </c>
+      <c r="R25">
+        <v>12.09849222389449</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
